--- a/hasil uji/nilaiALPHA.xlsx
+++ b/hasil uji/nilaiALPHA.xlsx
@@ -466,60 +466,60 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[1 1 1 1 1 0 0 0 1 1 0 0 1 0 1 1 1 0 1 0 1 0 0 0 0 0 0 1 0 1 0 1 0 1 0 0 0
- 0 0 0 1 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1 1 0 1 0 1
- 1 1 1 0 1 1 0 1 0 0 1 1 0 0 1 1 1 0 1 1 1 1 1 1 0 0 1 0 1 1 0 1 1 1 0 1 1
- 0 1 1 0 0 1 0 1 0 1 1 0 1 0 0 1 0 0 1 1 0 0 0 0 1 0 0 1 0 1 1 0 0 1 1 1 1
- 1 1 0 0 0 1 1 1 0 0 0 1 1 1 0 0 1 0 1 0 1 0 0 0 0 0 1 1 1 0 1 0 0 0 1 1 0
- 1 0 1 0 0 1 1 1 1 0 1 0 0 1 0 1 1 1 1 0 1 0 0 0 0 0 1 0 0 0 0 1 1 1 1 1 1
- 1 1 0 0 1 0 0 1 1 1 0 0 1 1 0 0 0 0 0 1 0 1 0 0 1 1 1 0 0 1 1 0 1 0 0 0 0
- 0 1 0 1 1 1 1 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0 0 0 1 0 1 1 1 0 1 0 1
- 0 1 1 0 1 1 0 0 1 1 1 1 0 1 1 1 0 1 1 1 0 1 0 0 1 1 1 1 1 0 1 0 1 0 1 0 0
- 1 0 0 0 1 1 1 0 1 0 0 0 1 0 0 0 0 0 1 0 0 1 1 1 1 0 0 0 0 1 1 1 1 0 0 0 0
- 1 0 0 1 1 0 0 0 0 1 1 1 0 0 0 1 1 0 1 0 0 0 1 1 1 1 1 1 1 0 1 0 0 0 1 0 0
- 0 0 1 1 1 1 1 0 1 0 0 1 1 0 0 0 0 1 1 1 1 1 0 1 1 1 0 0 1 0 1 0 0 0 0 0 0
- 0 1 1 1 1 1 0 0 1 1 1 1 1 0 0 0 1 1 1 1 0 1 0 0 1 1 0 0 0 1 1 0 0 1 0 0 1
- 0 1 0 1 1 0 1 1 0 1 1 0 1 0 1 1 0 1 0 0 0 1 0 1 0 1 1 1 0 0 0 1 1 1 0 0 1
- 0 1 1 0 0 0 1 1 0 1 1 0 0 1 0 0 0 0 1 0 1 1 0 0 0 1 1 0 1 1 1 0 1 1 0 1 0
- 1 1 1 0 0 0 1 0 1 0 1 1 0 0 1 1 0 1 1 1 1 0 0 1 1 1 0 1 1 1 1 0 1 1 0 0 0
- 0 0 1 1 1 1 1 1 0 0 1 1 1 0 1 1 0 1 1 0 1 1 0 0 0 0 1 1 1 1 1 1 1 0 1 1 0
- 0 1 1 0 0 1 1 0 0 0 1 1 1 1 1 1 1 0 0 1 1 1 0 1 0 1 0 0 0 0 1 0 0 0 1 1 0
- 1 0 1 1 0 0 1 0 1 1 1 1 1 1 1 1 1 1 1 0 0 1 1 0 0 0 1 0 0 0 0 1 0 1 0 0 0
- 1 1 0 0 1 0 0 0 0 0 0 0 0 0 1 1 1 1 1 1 0 0 0 1 1 1 1 0 1 1 0 0 1 1 0 1 0
- 1 0 0 0 1 1 0 0 0 1 1 1 1]</t>
+          <t>[1 1 0 1 0 1 1 0 0 0 0 0 0 1 1 0 0 1 1 1 0 1 0 0 0 0 1 1 1 0 1 1 1 1 1 0 0
+ 1 0 0 1 1 1 1 1 1 1 1 1 1 1 0 0 0 1 0 0 1 1 0 1 1 1 1 0 0 0 0 0 0 1 1 1 1
+ 1 0 0 1 1 1 0 0 0 1 1 1 1 1 0 0 0 0 1 0 1 0 1 1 1 0 1 0 1 1 0 1 1 1 1 0 1
+ 1 1 1 0 1 1 1 1 1 0 0 0 1 1 1 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 1 0 1 0 1
+ 0 0 0 1 1 1 1 1 0 0 0 0 1 0 0 0 0 0 1 0 1 1 0 0 0 0 1 0 0 1 1 0 1 1 0 1 0
+ 1 0 0 1 1 0 0 0 1 0 0 1 0 1 1 0 0 1 1 1 1 1 1 0 0 1 1 0 0 1 0 1 0 1 0 1 0
+ 1 1 0 0 1 0 1 1 0 0 0 0 1 1 0 1 1 0 1 1 0 1 1 1 0 1 1 1 1 1 1 1 1 1 0 1 1
+ 1 1 1 0 1 1 1 0 0 1 1 0 1 1 1 0 1 1 0 1 0 0 0 1 0 0 1 1 0 1 1 0 1 0 0 0 0
+ 0 0 1 1 0 1 1 0 0 1 1 1 1 1 0 0 1 0 0 1 1 0 1 1 0 1 0 1 0 0 1 0 1 1 0 1 0
+ 1 1 0 1 1 1 1 1 1 1 0 0 1 0 1 0 1 1 0 1 1 0 1 1 0 0 1 1 1 1 1 1 0 1 0 0 0
+ 0 0 1 0 0 0 0 1 0 1 1 0 0 0 0 1 0 1 0 1 1 1 1 1 0 1 1 1 0 1 0 0 0 1 1 0 1
+ 1 0 0 0 0 1 0 0 1 0 1 0 0 1 1 1 1 0 1 1 0 1 1 1 1 0 0 1 0 1 0 1 1 0 0 0 1
+ 1 1 1 1 0 1 1 1 0 0 1 1 1 1 0 1 0 0 1 1 1 0 1 1 0 1 0 1 0 0 0 0 1 1 0 1 0
+ 1 1 1 0 1 0 1 0 1 0 1 1 1 1 0 1 0 0 1 0 0 1 1 0 1 1 1 1 0 1 0 0 1 0 0 1 1
+ 1 1 1 1 0 1 0 1 0 1 1 0 1 1 1 0 0 1 1 0 0 1 0 0 0 1 0 1 0 0 0 1 0 0 1 0 1
+ 0 1 0 0 0 1 0 0 1 1 0 0 1 1 0 1 1 1 0 0 0 0 1 0 0 0 0 1 0 1 0 0 1 1 0 0 0
+ 0 0 1 1 1 0 1 1 1 1 1 0 1 0 1 0 1 0 1 1 0 1 0 0 0 0 0 0 1 1 1 0 1 0 1 0 0
+ 1 1 1 1 0 1 1 1 0 0 0 0 0 0 1 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0
+ 1 1 0 0 0 1 1 1 0 0 0 0 0 0 0 1 1 0 0 0 0 1 0 1 1 1 0 0 1 1 0 1 0 1 1 1 1
+ 1 1 1 1 1 1 1 0 0 0 0 1 0 1 1 1 1 0 1 1 0 0 1 0 1 1 1 0 0 1 0 1 1 0 0 0 0
+ 0 0 0 0 1 0 0 0 0 1 0 1 1]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[  0   1   2   3   4   8   9  12  14  15  16  18  20  27  29  31  33  40
-  43  45  48  57  61  68  69  71  73  74  75  76  78  79  81  84  85  88
-  89  90  92  93  94  95  96  97 100 102 103 105 106 107 109 110 112 113
- 116 118 120 121 123 126 129 130 135 138 140 141 144 145 146 147 148 149
- 153 154 155 159 160 161 164 166 168 174 175 176 178 182 183 185 187 190
- 191 192 193 195 198 200 201 202 203 205 211 216 217 218 219 220 221 222
- 223 226 229 230 231 234 235 241 243 246 247 248 251 252 254 260 262 263
- 264 265 275 276 279 287 289 290 291 293 295 297 298 300 301 304 305 306
- 307 309 310 311 313 314 315 317 320 321 322 323 324 326 328 330 333 337
- 338 339 341 345 351 354 355 356 357 362 363 364 365 370 373 374 379 380
- 381 385 386 388 392 393 394 395 396 397 398 400 404 409 410 411 412 413
- 415 418 419 424 425 426 427 428 430 431 432 435 437 445 446 447 448 449
- 452 453 454 455 456 460 461 462 463 465 468 469 473 474 477 480 482 484
- 485 487 488 490 491 493 495 496 498 502 504 506 507 508 512 513 514 517
- 519 520 524 525 527 528 531 536 538 539 543 544 546 547 548 550 551 553
- 555 556 557 561 563 565 566 569 570 572 573 574 575 578 579 580 582 583
- 584 585 587 588 594 595 596 597 598 599 602 603 604 606 607 609 610 612
- 613 618 619 620 621 622 623 624 626 627 630 631 634 635 639 640 641 642
- 643 644 645 648 649 650 652 654 659 663 664 666 668 669 672 674 675 676
- 677 678 679 680 681 682 683 684 687 688 692 697 699 703 704 707 717 718
- 719 720 721 722 726 727 728 729 731 732 735 736 738 740 744 745 749 750
- 751 752]</t>
+          <t>[  0   1   3   5   6  13  14  17  18  19  21  26  27  28  30  31  32  33
+  34  37  40  41  42  43  44  45  46  47  48  49  50  54  57  58  60  61
+  62  63  70  71  72  73  74  77  78  79  83  84  85  86  87  92  94  96
+  97  98 100 102 103 105 106 107 108 110 111 112 113 115 116 117 118 119
+ 123 124 125 127 135 139 141 143 145 147 151 152 153 154 155 160 166 168
+ 169 174 177 178 180 181 183 185 188 189 193 196 198 199 202 203 204 205
+ 206 207 210 211 214 216 218 220 222 223 226 228 229 234 235 237 238 240
+ 241 243 244 245 247 248 249 250 251 252 253 254 255 257 258 259 260 261
+ 263 264 265 268 269 271 272 273 275 276 278 282 285 286 288 289 291 298
+ 299 301 302 305 306 307 308 309 312 315 316 318 319 321 323 326 328 329
+ 331 333 334 336 337 338 339 340 341 342 345 347 349 350 352 353 355 356
+ 359 360 361 362 363 364 366 372 377 379 380 385 387 389 390 391 392 393
+ 395 396 397 399 403 404 406 407 412 415 417 420 421 422 423 425 426 428
+ 429 430 431 434 436 438 439 443 444 445 446 447 449 450 451 454 455 456
+ 457 459 462 463 464 466 467 469 471 476 477 479 481 482 483 485 487 489
+ 491 492 493 494 496 499 502 503 505 506 507 508 510 513 516 517 518 519
+ 520 521 523 525 527 528 530 531 532 535 536 539 543 545 549 552 554 556
+ 560 563 564 567 568 570 571 572 577 582 584 587 588 594 595 596 598 599
+ 600 601 602 604 606 608 610 611 613 620 621 622 624 626 629 630 631 632
+ 634 635 636 643 645 646 648 659 662 664 666 667 671 672 673 681 682 687
+ 689 690 691 694 695 697 699 700 701 702 703 704 705 706 707 708 709 714
+ 716 717 718 719 721 722 725 727 728 729 732 734 735 744 749 751 752]</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.9736842105263158</v>
+        <v>0.9605263157894737</v>
       </c>
       <c r="E2" t="n">
-        <v>18.54643607139587</v>
+        <v>19.53495669364929</v>
       </c>
     </row>
     <row r="3">
@@ -528,60 +528,60 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[1 1 1 0 0 0 1 1 1 0 0 1 0 1 1 1 0 0 0 1 1 1 1 1 1 1 0 1 1 1 0 0 1 1 0 1 0
- 0 1 1 1 0 0 1 1 0 1 1 0 1 1 1 1 0 0 0 1 0 1 1 0 1 0 0 0 0 0 0 0 1 0 0 0 1
- 1 0 1 0 0 0 0 1 1 1 1 0 0 0 0 0 0 1 0 0 0 0 1 0 1 1 0 1 1 1 1 0 1 0 1 0 1
- 0 0 1 1 0 0 0 1 0 1 1 0 0 1 0 1 1 1 0 0 0 0 0 1 0 1 0 0 1 0 0 0 1 0 1 0 0
- 1 0 1 0 0 1 0 1 0 0 1 0 0 1 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 1 0 1 1 1 0 0
- 1 1 1 1 0 0 1 1 1 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 1 0 1 0 1 1 0 0 1 0 1 1
- 0 0 1 0 0 1 1 1 0 0 1 1 0 0 0 1 1 1 0 0 1 1 1 1 1 1 0 0 1 0 0 1 0 0 1 0 1
- 1 0 0 1 1 1 1 0 1 0 0 1 0 0 1 1 1 1 0 1 0 1 1 1 1 1 0 1 0 1 0 1 1 0 1 1 0
- 1 1 1 1 0 1 1 0 1 1 1 1 0 1 0 1 1 1 1 1 0 1 1 1 1 1 1 1 1 1 1 1 1 0 1 0 0
- 0 0 0 0 0 0 0 1 0 0 1 1 0 1 1 0 0 0 1 1 1 1 1 0 0 1 0 0 1 1 1 0 0 0 1 0 1
- 1 0 1 0 0 1 0 0 0 0 0 1 0 1 1 0 0 1 0 1 0 1 1 1 0 0 0 0 0 0 1 0 1 1 1 0 1
- 1 0 0 1 0 1 0 0 1 1 0 0 1 1 0 1 1 0 0 0 0 1 1 0 1 0 0 0 0 0 1 1 0 1 0 0 1
- 1 0 0 0 0 1 0 1 0 0 1 1 1 0 1 0 0 1 1 1 0 1 1 0 0 1 1 0 0 0 0 1 0 0 0 1 0
- 0 0 0 0 0 1 0 1 1 1 1 1 0 0 1 1 1 1 1 1 1 1 0 0 0 1 1 0 1 1 1 1 0 0 0 1 1
- 1 1 1 1 0 1 0 1 0 1 0 1 1 0 0 0 0 1 1 0 0 0 1 1 1 1 0 1 1 1 0 1 0 0 1 0 0
- 1 0 1 1 0 0 1 0 0 0 1 1 0 0 0 1 1 1 1 0 0 1 1 0 0 1 1 0 1 1 0 1 0 1 1 0 0
- 0 0 0 1 0 1 0 0 1 0 1 1 0 1 1 0 1 1 0 1 1 1 1 1 0 1 1 1 1 1 1 1 1 1 1 0 1
- 1 1 0 1 1 0 0 0 0 1 0 1 1 0 0 1 0 1 0 1 0 0 0 1 0 1 1 0 1 1 1 0 1 0 0 1 1
- 1 0 0 1 0 0 0 1 1 1 1 1 0 1 1 1 0 1 1 1 1 0 1 1 1 1 1 1 0 0 0 0 1 1 0 1 0
- 0 0 0 1 0 0 1 0 0 1 1 0 1 1 1 1 1 1 1 1 0 0 0 0 0 1 1 0 1 1 1 1 1 1 0 1 1
- 1 1 1 0 0 1 1 0 1 1 1 1 1]</t>
+          <t>[0 0 1 0 1 0 1 0 1 0 0 1 1 1 0 1 1 0 0 1 1 1 0 1 1 0 0 0 1 0 1 1 1 0 0 0 0
+ 0 1 0 1 1 0 0 0 0 1 0 1 1 0 0 1 1 1 1 1 0 0 0 1 0 1 0 1 0 0 1 1 1 1 1 1 0
+ 0 0 0 1 0 1 1 1 1 0 1 0 1 1 1 1 1 0 0 1 0 1 1 0 1 0 1 1 1 0 0 1 1 0 0 0 1
+ 0 1 1 0 0 0 1 0 1 1 1 1 0 0 0 0 1 0 1 1 1 0 0 0 0 1 1 0 1 0 1 1 0 1 1 0 0
+ 1 1 0 0 0 1 0 1 1 0 0 1 0 0 1 0 1 1 1 0 1 0 1 1 0 1 0 1 1 0 1 1 0 0 0 1 0
+ 1 1 1 1 0 1 1 1 1 0 1 1 0 0 1 1 0 1 0 0 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 1 1
+ 0 0 0 1 0 1 0 0 1 0 1 0 1 0 1 0 1 1 1 1 1 0 1 1 0 1 0 0 0 0 0 1 1 1 0 0 0
+ 0 0 1 1 1 0 0 1 0 0 0 1 1 0 1 1 0 0 0 0 1 1 0 0 1 0 1 1 0 0 1 1 0 1 0 1 0
+ 1 1 1 0 0 1 1 0 0 1 0 1 0 0 1 1 1 1 0 0 1 0 0 0 1 1 1 0 0 1 1 0 0 0 1 1 0
+ 0 1 0 0 1 1 0 0 0 1 1 1 0 1 0 1 0 0 1 1 0 0 0 1 1 1 0 1 0 0 0 1 1 1 0 1 0
+ 1 0 0 1 1 0 1 0 0 1 0 0 0 0 1 0 1 0 1 0 1 0 0 0 0 0 1 1 1 0 1 1 0 0 0 0 1
+ 1 1 1 0 1 1 1 1 1 0 1 0 0 1 0 1 1 0 1 1 1 1 0 0 1 0 0 0 0 1 0 0 0 0 1 0 1
+ 0 1 1 1 1 0 0 1 1 1 0 0 1 1 0 0 0 1 1 0 0 1 0 0 1 0 0 1 1 1 0 0 1 1 0 0 0
+ 1 0 0 1 0 0 1 0 0 1 1 1 1 1 0 1 0 1 1 0 0 0 0 0 1 1 1 0 0 1 0 1 1 0 1 0 1
+ 0 1 1 1 0 0 0 1 0 1 0 1 0 0 1 0 1 0 1 1 1 0 1 1 0 1 0 0 1 1 0 0 1 0 0 1 1
+ 1 1 1 0 0 0 1 0 1 1 0 1 0 0 0 1 1 1 0 0 1 1 1 0 1 0 0 0 0 1 0 1 1 0 1 1 1
+ 1 0 1 1 0 1 1 1 1 1 1 1 0 0 0 0 1 0 1 0 0 1 0 1 1 0 1 1 0 0 1 0 0 1 1 1 0
+ 0 0 1 1 0 0 0 1 1 1 1 1 0 0 1 1 0 0 1 0 1 1 1 1 0 0 1 1 1 1 1 1 1 0 1 0 0
+ 1 0 0 1 1 1 0 0 1 1 1 1 0 0 1 0 0 0 0 1 0 1 0 1 0 0 0 1 0 1 1 1 0 1 0 1 0
+ 1 0 1 0 0 0 0 0 0 1 1 1 0 1 0 1 1 1 0 0 1 1 0 1 1 1 1 1 1 0 0 0 1 1 0 1 0
+ 0 1 0 1 1 1 1 0 1 0 1 0 0]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[  0   1   2   6   7   8  11  13  14  15  19  20  21  22  23  24  25  27
-  28  29  32  33  35  38  39  40  43  44  46  47  49  50  51  52  56  58
-  59  61  69  73  74  76  81  82  83  84  91  96  98  99 101 102 103 104
- 106 108 110 113 114 118 120 121 124 126 127 128 134 136 139 143 145 148
- 150 153 155 158 161 166 169 170 178 180 181 182 185 186 187 188 191 192
- 193 200 206 209 210 212 214 215 218 220 221 224 227 228 229 232 233 237
- 238 239 242 243 244 245 246 247 250 253 256 258 259 262 263 264 265 267
- 270 273 274 275 276 278 280 281 282 283 284 286 288 290 291 293 294 296
- 297 298 299 301 302 304 305 306 307 309 311 312 313 314 315 317 318 319
- 320 321 322 323 324 325 326 327 328 330 340 343 344 346 347 351 352 353
- 354 355 358 361 362 363 367 369 370 372 375 381 383 384 387 389 391 392
- 393 400 402 403 404 406 407 410 412 415 416 419 420 422 423 428 429 431
- 437 438 440 443 444 449 451 454 455 456 458 461 462 463 465 466 469 470
- 475 479 486 488 489 490 491 492 495 496 497 498 499 500 501 502 506 507
- 509 510 511 512 516 517 518 519 520 521 523 525 527 529 530 535 536 540
- 541 542 543 545 546 547 549 552 555 557 558 561 565 566 570 571 572 573
- 576 577 580 581 583 584 586 588 589 595 597 600 602 603 605 606 608 609
- 611 612 613 614 615 617 618 619 620 621 622 623 624 625 626 628 629 630
- 632 633 638 640 641 644 646 648 652 654 655 657 658 659 661 664 665 666
- 669 673 674 675 676 677 679 680 681 683 684 685 686 688 689 690 691 692
- 693 698 699 701 706 709 712 713 715 716 717 718 719 720 721 722 728 729
- 731 732 733 734 735 736 738 739 740 741 742 745 746 748 749 750 751 752]</t>
+          <t>[  2   4   6   8  11  12  13  15  16  19  20  21  23  24  28  30  31  32
+  38  40  41  46  48  49  52  53  54  55  56  60  62  64  67  68  69  70
+  71  72  77  79  80  81  82  84  86  87  88  89  90  93  95  96  98 100
+ 101 102 105 106 110 112 113 117 119 120 121 122 127 129 130 131 136 137
+ 139 141 142 144 145 148 149 153 155 156 159 162 164 165 166 168 170 171
+ 173 175 176 178 179 183 185 186 187 188 190 191 192 193 195 196 199 200
+ 202 205 207 212 220 221 225 227 230 232 234 236 238 239 240 241 242 244
+ 245 247 253 254 255 261 262 263 266 270 271 273 274 279 280 283 285 286
+ 289 290 292 294 296 297 298 301 302 305 307 310 311 312 313 316 320 321
+ 322 325 326 330 331 334 337 338 342 343 344 346 348 351 352 356 357 358
+ 360 364 365 366 368 370 373 374 376 379 384 386 388 390 396 397 398 400
+ 401 406 407 408 409 411 412 413 414 415 417 420 422 423 425 426 427 428
+ 431 436 441 443 445 446 447 448 451 452 453 456 457 461 462 465 468 471
+ 472 473 476 477 481 484 487 490 491 492 493 494 496 498 499 505 506 507
+ 510 512 513 515 517 519 520 521 525 527 529 532 534 536 537 538 540 541
+ 543 546 547 550 553 554 555 556 557 561 563 564 566 570 571 572 575 576
+ 577 579 584 586 587 589 590 591 592 594 595 597 598 599 600 601 602 603
+ 608 610 613 615 616 618 619 622 625 626 627 631 632 636 637 638 639 640
+ 643 644 647 649 650 651 652 655 656 657 658 659 660 661 663 666 669 670
+ 671 674 675 676 677 680 685 687 689 693 695 696 697 699 701 703 705 712
+ 713 714 716 718 719 720 723 724 726 727 728 729 730 731 735 736 738 741
+ 743 744 745 746 748 750]</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.9736842105263158</v>
+        <v>0.9605263157894737</v>
       </c>
       <c r="E3" t="n">
-        <v>19.11811399459839</v>
+        <v>19.00615453720093</v>
       </c>
     </row>
     <row r="4">
@@ -590,59 +590,61 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[1 1 1 0 0 1 0 1 1 1 0 0 1 0 0 0 1 1 1 1 1 1 1 0 0 1 0 1 1 0 0 1 1 1 0 0 1
- 1 0 0 1 1 1 0 1 1 1 1 1 0 1 1 0 0 0 1 0 1 1 1 1 0 0 0 0 1 0 1 0 1 1 0 1 1
- 0 0 1 1 0 1 0 0 1 1 0 1 1 0 1 1 0 1 0 0 0 0 1 0 1 1 0 1 0 1 1 1 1 0 1 0 0
- 0 0 0 1 0 1 1 1 1 1 1 0 0 1 0 1 0 1 0 0 1 1 1 0 1 1 1 1 0 1 1 0 0 0 1 0 0
- 0 1 1 1 0 1 0 1 1 0 0 0 0 1 0 0 1 1 0 0 1 1 1 1 0 1 1 1 0 0 1 1 1 1 1 1 1
- 1 0 1 0 0 0 0 0 1 0 1 0 0 1 0 0 1 0 0 1 0 0 1 1 0 1 1 0 1 1 0 1 0 1 0 0 1
- 0 0 0 0 1 1 1 0 0 1 0 1 1 1 0 1 0 0 0 1 1 1 1 1 0 1 0 0 0 1 1 0 0 1 0 1 0
- 1 0 1 1 0 0 0 1 0 1 0 0 1 0 1 1 0 1 1 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 1 1
- 0 0 1 0 1 1 1 1 0 0 1 1 1 0 0 0 0 0 0 1 1 1 1 1 0 0 0 1 0 1 1 1 0 0 1 0 1
- 1 0 0 0 0 1 0 0 1 1 1 1 0 1 0 1 0 0 1 1 1 1 1 1 0 1 1 0 1 1 1 0 0 1 0 0 1
- 0 1 1 1 1 1 0 1 1 0 0 1 0 0 0 1 1 1 1 0 1 1 1 1 0 1 1 0 1 1 0 0 0 0 0 0 0
- 0 1 1 0 0 0 0 1 1 1 0 1 0 1 1 0 1 1 1 0 1 1 1 0 1 1 0 1 0 1 1 0 1 1 1 0 1
- 1 1 0 1 0 0 0 1 1 0 1 0 1 0 0 0 0 1 0 1 1 0 0 1 0 0 0 1 1 0 1 1 1 1 1 1 0
- 0 0 0 1 0 1 1 0 0 0 0 0 0 1 0 0 1 1 0 0 1 0 0 1 1 1 0 0 0 0 0 0 1 1 0 0 0
- 0 1 1 1 0 0 1 1 0 1 1 1 1 1 1 0 0 1 1 0 1 0 0 1 0 0 1 0 1 0 0 0 1 0 1 0 1
- 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 1 0 0 0 1 0 0 0 1 0 0 0 0 1 0 1 0 1 1 0
- 0 0 0 1 0 1 1 0 0 0 1 1 0 0 0 1 0 1 0 1 0 1 1 1 1 1 1 1 0 0 0 1 1 0 0 1 0
- 1 1 1 1 1 1 1 1 0 0 0 0 0 0 1 1 0 0 1 1 1 0 1 1 1 0 0 1 1 1 1 0 1 1 1 0 0
- 1 0 1 0 0 1 1 1 0 1 0 1 0 1 0 1 0 0 1 0 1 0 0 0 1 1 0 1 0 0 0 0 1 0 1 1 0
- 1 0 0 0 1 1 1 0 0 1 0 1 0 0 0 0 0 0 1 0 0 1 1 0 1 0 0 1 1 1 1 1 0 1 0 0 1
- 0 0 1 0 0 0 1 0 1 1 0 0 0]</t>
+          <t>[1 0 0 0 0 1 0 1 1 1 1 1 0 1 0 1 1 0 0 1 0 0 1 0 1 0 0 1 0 1 1 0 0 1 0 1 1
+ 1 1 0 1 1 1 1 0 0 1 1 0 1 1 1 1 0 1 1 1 0 1 0 1 1 1 1 0 1 0 1 0 1 1 1 1 1
+ 0 1 0 1 1 1 0 0 0 0 1 1 0 1 1 0 1 1 0 0 1 0 1 1 1 1 0 0 0 1 1 1 1 1 1 0 0
+ 0 0 1 0 1 1 0 0 1 1 1 1 0 0 0 1 1 1 0 1 1 1 1 1 1 0 0 1 0 0 0 1 1 1 1 0 1
+ 1 0 0 0 1 0 1 0 1 1 0 1 0 0 0 0 0 0 1 1 0 0 0 1 1 1 1 1 1 1 0 1 0 0 1 1 0
+ 0 0 0 1 0 1 1 0 1 1 1 1 1 0 1 1 0 1 1 1 1 0 1 0 1 1 0 1 1 0 1 0 0 0 1 0 1
+ 1 0 1 0 0 1 0 0 0 1 0 1 0 1 1 0 0 0 1 1 1 0 0 1 1 1 1 1 1 0 1 0 1 1 0 0 1
+ 0 0 0 1 0 1 0 0 0 0 0 0 1 1 1 1 1 1 0 1 1 1 1 0 0 1 1 1 1 1 1 1 1 1 0 0 1
+ 1 1 0 0 0 0 1 0 0 1 0 1 1 0 0 0 0 1 0 1 1 0 0 1 1 1 1 0 0 1 0 0 1 0 1 0 0
+ 1 1 0 1 0 0 0 1 0 0 0 1 1 1 1 1 0 0 1 1 1 0 0 0 0 0 1 1 0 0 0 0 0 1 0 1 1
+ 1 0 1 1 0 0 1 0 0 0 0 1 0 1 0 0 0 1 1 0 1 0 0 0 1 0 0 1 1 1 1 1 1 1 0 0 1
+ 0 1 1 0 0 0 0 1 1 1 1 1 0 0 0 1 1 1 1 0 0 1 0 0 0 1 0 0 1 1 1 0 1 1 1 0 1
+ 0 1 1 0 1 0 1 0 0 1 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 1 1 0 1 0 1 0 0 1 1 0 1
+ 1 0 1 1 0 0 0 0 0 1 1 0 0 1 0 0 0 1 0 0 1 1 1 1 0 1 1 0 1 0 0 0 1 0 1 0 0
+ 1 1 1 0 1 1 0 1 1 0 1 1 1 0 0 0 1 1 1 1 0 1 1 1 1 0 0 1 1 1 1 0 0 0 1 1 1
+ 1 1 1 1 0 0 1 1 1 0 1 1 1 0 0 0 1 0 0 0 0 0 1 1 1 0 0 0 1 1 0 0 1 1 0 1 0
+ 0 1 1 0 0 1 0 0 0 1 0 0 1 1 1 0 1 0 1 1 1 0 0 0 1 1 0 0 1 1 0 0 1 1 1 1 0
+ 1 0 1 0 1 1 0 0 0 0 0 0 1 0 0 1 0 1 0 1 1 0 0 1 0 1 0 0 0 0 1 1 1 0 0 0 0
+ 0 0 0 0 1 0 1 1 1 0 0 1 1 1 0 1 1 1 1 0 0 1 1 1 0 1 0 0 0 1 1 0 0 1 1 0 1
+ 1 0 0 1 1 1 1 1 1 0 0 0 1 1 0 1 1 1 1 0 0 0 1 0 0 0 0 1 1 1 0 0 1 0 1 0 1
+ 1 1 1 0 1 1 0 1 0 1 1 0 0]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[  0   1   2   5   7   8   9  12  16  17  18  19  20  21  22  25  27  28
-  31  32  33  36  37  40  41  42  44  45  46  47  48  50  51  55  57  58
-  59  60  65  67  69  70  72  73  76  77  79  82  83  85  86  88  89  91
-  96  98  99 101 103 104 105 106 108 114 116 117 118 119 120 121 124 126
- 128 131 132 133 135 136 137 138 140 141 145 149 150 151 153 155 156 161
- 164 165 168 169 170 171 173 174 175 178 179 180 181 182 183 184 185 187
- 193 195 198 201 204 207 208 210 211 213 214 216 218 221 226 227 228 231
- 233 234 235 237 241 242 243 244 245 247 251 252 255 257 259 261 262 266
- 268 271 273 274 276 277 284 288 291 294 295 298 300 301 302 303 306 307
- 308 315 316 317 318 319 323 325 326 327 330 332 333 338 341 342 343 344
- 346 348 351 352 353 354 355 356 358 359 361 362 363 366 369 371 372 373
- 374 375 377 378 381 385 386 387 388 390 391 392 393 395 396 398 399 408
- 409 414 415 416 418 420 421 423 424 425 427 428 429 431 432 434 436 437
- 439 440 441 443 444 445 447 451 452 454 456 461 463 464 467 471 472 474
- 475 476 477 478 479 484 486 487 494 497 498 501 504 505 506 513 514 519
- 520 521 524 525 527 528 529 530 531 532 535 536 538 541 544 546 550 552
- 554 563 570 571 572 576 580 585 587 589 590 595 597 598 602 603 607 609
- 611 613 614 615 616 617 618 619 623 624 627 629 630 631 632 633 634 635
- 636 643 644 647 648 649 651 652 653 656 657 658 659 661 662 663 666 668
- 671 672 673 675 677 679 681 684 686 690 691 693 698 700 701 703 707 708
- 709 712 714 721 724 725 727 730 731 732 733 734 736 739 742 746 748 749]</t>
+          <t>[  0   5   7   8   9  10  11  13  15  16  19  22  24  27  29  30  33  35
+  36  37  38  40  41  42  43  46  47  49  50  51  52  54  55  56  58  60
+  61  62  63  65  67  69  70  71  72  73  75  77  78  79  84  85  87  88
+  90  91  94  96  97  98  99 103 104 105 106 107 108 113 115 116 119 120
+ 121 122 126 127 128 130 131 132 133 134 135 138 142 143 144 145 147 148
+ 152 154 156 157 159 166 167 171 172 173 174 175 176 177 179 182 183 188
+ 190 191 193 194 195 196 197 199 200 202 203 204 205 207 209 210 212 213
+ 215 219 221 222 224 227 231 233 235 236 240 241 242 245 246 247 248 249
+ 250 252 254 255 258 262 264 271 272 273 274 275 276 278 279 280 281 284
+ 285 286 287 288 289 290 291 292 295 296 297 302 305 307 308 313 315 316
+ 319 320 321 322 325 328 330 333 334 336 340 344 345 346 347 348 351 352
+ 353 359 360 366 368 369 370 372 373 376 381 383 387 388 390 394 397 398
+ 399 400 401 402 403 406 408 409 414 415 416 417 418 422 423 424 425 428
+ 432 435 436 437 439 440 441 443 445 446 448 450 453 458 460 463 469 470
+ 472 474 477 478 480 481 483 484 490 491 494 498 501 502 503 504 506 507
+ 509 513 515 518 519 520 522 523 525 526 528 529 530 534 535 536 537 539
+ 540 541 542 545 546 547 548 552 553 554 555 556 557 558 561 562 563 565
+ 566 567 571 577 578 579 583 584 587 588 590 593 594 597 601 604 605 606
+ 608 610 611 612 616 617 620 621 624 625 626 627 629 631 633 634 641 644
+ 646 648 649 652 654 659 660 661 670 672 673 674 677 678 679 681 682 683
+ 684 687 688 689 691 695 696 699 700 702 703 706 707 708 709 710 711 715
+ 716 718 719 720 721 725 730 731 732 735 737 739 740 741 742 744 745 747
+ 749 750]</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.9605263157894737</v>
+        <v>0.9868421052631579</v>
       </c>
       <c r="E4" t="n">
-        <v>18.18829417228699</v>
+        <v>19.34252238273621</v>
       </c>
     </row>
     <row r="5">
@@ -651,60 +653,60 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[1 1 1 1 1 1 1 1 0 0 1 1 1 1 0 0 0 0 1 0 0 0 1 1 0 1 0 0 1 1 0 0 1 0 0 0 1
- 0 1 0 0 1 1 1 1 0 0 1 1 1 0 0 1 0 1 0 0 0 1 0 0 1 1 0 1 1 0 1 1 0 1 0 1 1
- 1 0 1 0 1 0 0 1 1 1 1 1 0 0 1 1 1 0 0 1 0 1 1 1 1 1 0 1 1 0 1 0 0 1 0 0 1
- 0 0 1 0 0 1 0 1 1 1 0 0 1 1 0 0 0 0 1 1 1 0 0 1 1 0 0 1 1 1 1 0 1 1 0 1 1
- 0 0 0 0 0 0 1 1 0 1 0 0 0 0 1 1 1 1 0 0 1 0 0 0 1 0 1 1 0 1 0 1 0 0 0 0 1
- 1 1 0 1 1 1 0 0 1 1 1 0 0 0 1 1 1 0 1 1 1 1 0 1 1 1 0 0 0 0 1 0 1 1 0 0 1
- 0 0 0 1 0 1 0 1 1 1 0 1 0 1 1 0 0 1 0 1 0 0 1 0 0 0 1 0 1 1 1 0 1 0 1 0 0
- 0 0 0 1 1 1 1 1 1 1 1 0 1 0 1 1 0 0 0 0 0 1 0 1 0 1 1 1 1 1 0 1 1 0 0 1 1
- 0 0 1 1 1 0 0 1 1 1 1 0 0 0 1 1 1 0 0 1 0 0 0 1 1 0 1 1 0 1 1 0 1 1 0 1 0
- 1 1 0 0 0 1 0 0 0 1 1 0 1 1 1 0 0 0 1 1 0 0 0 1 0 1 1 0 1 1 0 0 1 0 1 0 1
- 0 0 0 1 1 1 1 0 1 1 0 1 1 0 1 1 1 1 0 1 0 0 1 1 0 0 1 0 1 1 1 0 1 1 0 0 0
- 1 0 1 0 1 1 0 1 0 1 1 1 1 0 0 1 0 0 1 0 1 0 1 1 1 0 0 0 0 1 0 0 0 1 1 0 1
- 0 1 1 1 0 0 0 1 0 1 1 0 0 1 1 1 0 0 0 1 0 1 0 1 1 0 1 1 0 1 1 0 1 1 1 0 1
- 0 1 0 1 1 0 1 1 1 0 0 1 1 0 0 1 1 1 1 0 1 0 0 0 1 0 1 0 1 1 1 1 0 0 0 1 0
- 1 0 0 1 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 1 0 1 1 0 0 1 1 1 1 0 1 0 0 0 1 0 0
- 0 1 1 1 0 1 1 1 0 0 1 0 1 1 1 1 1 1 1 1 0 1 1 0 1 0 1 1 1 1 1 0 1 1 0 1 1
- 1 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 1 0 1 0 0 0 1 0 1 0 1 1 1 0 1 0 1 0 0 1 1
- 0 0 0 1 1 1 0 1 0 0 1 0 0 0 1 0 1 0 0 1 0 1 1 0 0 1 1 0 1 0 1 0 1 1 1 1 1
- 1 0 0 0 1 0 1 0 0 0 0 1 0 1 1 1 1 1 0 1 0 0 0 0 1 1 1 1 1 0 1 1 0 1 1 0 1
- 0 0 0 1 0 0 0 0 1 0 0 1 1 1 0 1 0 0 0 0 1 0 1 1 0 1 0 1 1 0 0 1 1 0 1 0 0
- 0 1 0 1 1 0 1 0 0 1 1 0 0]</t>
+          <t>[1 0 1 1 0 0 0 1 0 1 1 1 0 0 1 1 1 1 0 0 0 1 1 0 1 1 1 0 1 1 0 1 0 0 0 1 0
+ 1 0 0 0 1 1 1 1 1 1 0 1 1 1 0 0 0 1 1 0 0 0 1 0 1 1 1 0 0 0 1 0 1 1 1 1 1
+ 0 0 0 1 1 0 1 1 1 1 0 0 0 0 1 1 0 0 0 0 1 0 0 1 0 0 1 1 1 1 1 0 0 0 0 1 1
+ 0 0 1 0 1 1 1 1 0 0 0 1 1 0 1 0 1 0 1 1 1 0 0 0 1 1 0 1 1 1 1 0 1 1 0 0 1
+ 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 1 1 0 0 0 0 0 0 0 1 1 1 0 0 0 0 1 0 1 0 0
+ 0 1 0 1 1 0 0 0 1 0 0 1 0 0 0 1 1 0 0 1 1 1 1 1 1 1 0 0 1 0 0 0 1 1 1 1 1
+ 1 1 0 1 1 0 0 0 1 0 0 0 1 0 0 0 0 1 1 0 1 1 1 0 1 0 1 0 1 1 0 0 0 0 0 0 1
+ 0 0 0 0 1 0 0 0 1 0 0 1 0 1 1 1 1 0 1 0 0 1 0 0 1 0 0 1 1 1 1 0 0 0 0 0 0
+ 1 1 1 0 0 0 0 1 0 0 1 0 0 1 0 1 0 0 0 0 0 0 1 0 1 1 1 1 0 0 0 1 0 1 0 1 1
+ 1 0 1 0 0 0 1 1 0 0 0 0 1 1 1 0 1 1 1 0 0 1 1 1 1 1 0 0 1 0 1 0 1 1 1 1 1
+ 1 0 0 0 0 1 0 0 1 1 1 0 1 1 0 0 0 0 0 0 0 1 1 1 0 0 1 1 1 1 1 0 0 0 1 0 1
+ 0 0 0 1 1 1 0 1 1 0 1 1 0 1 0 0 1 1 0 0 1 1 0 1 1 0 0 1 1 1 1 1 0 0 1 0 1
+ 0 1 1 1 1 0 1 1 1 1 1 1 0 1 0 1 1 1 0 1 0 1 1 1 0 0 0 1 1 1 1 1 1 1 0 0 1
+ 0 1 0 1 0 1 0 1 0 1 0 0 1 1 0 1 0 0 0 1 1 0 0 0 1 1 1 0 0 1 1 1 1 0 1 1 0
+ 0 0 0 1 1 0 0 1 1 0 0 1 1 1 1 1 1 0 0 0 1 1 1 1 1 1 0 1 1 0 1 1 0 1 1 1 0
+ 1 0 0 1 0 0 0 1 0 1 0 1 1 1 0 1 1 1 1 1 0 1 0 1 1 0 0 0 1 0 0 1 1 1 1 0 1
+ 0 0 1 0 1 0 1 0 0 0 0 1 0 0 0 0 1 1 1 1 0 0 1 0 0 0 1 1 0 0 0 1 1 0 1 0 0
+ 1 1 1 0 0 1 1 0 0 1 0 0 0 0 1 0 1 1 1 0 0 0 1 1 0 1 0 0 1 1 1 1 1 0 0 0 1
+ 0 1 1 1 1 1 0 1 1 0 0 1 1 0 1 0 1 0 1 1 0 0 0 1 0 0 0 1 0 1 0 0 1 0 1 1 1
+ 1 0 1 0 0 0 1 0 0 0 0 0 1 1 0 1 1 1 1 1 1 1 0 1 0 1 1 0 1 0 0 1 1 0 0 1 0
+ 1 0 0 0 0 0 0 1 0 0 0 0 1]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[  0   1   2   3   4   5   6   7  10  11  12  13  18  22  23  25  28  29
-  32  36  38  41  42  43  44  47  48  49  52  54  58  61  62  64  65  67
-  68  70  72  73  74  76  78  81  82  83  84  85  88  89  90  93  95  96
-  97  98  99 101 102 104 107 110 113 116 118 119 120 123 124 129 130 131
- 134 135 138 139 140 141 143 144 146 147 154 155 157 162 163 164 165 168
- 172 174 175 177 179 184 185 186 188 189 190 193 194 195 199 200 201 203
- 204 205 206 208 209 210 215 217 218 221 225 227 229 230 231 233 235 236
- 239 241 244 248 250 251 252 254 256 262 263 264 265 266 267 268 269 271
- 273 274 280 282 284 285 286 287 288 290 291 294 295 298 299 300 303 304
- 305 306 310 311 312 315 319 320 322 323 325 326 328 329 331 333 334 338
- 342 343 345 346 347 351 352 356 358 359 361 362 365 367 369 373 374 375
- 376 378 379 381 382 384 385 386 387 389 392 393 396 398 399 400 402 403
- 407 409 411 412 414 416 417 418 419 422 425 427 429 430 431 436 440 441
- 443 445 446 447 451 453 454 457 458 459 463 465 467 468 470 471 473 474
- 476 477 478 480 482 484 485 487 488 489 492 493 496 497 498 499 501 505
- 507 509 510 511 512 516 518 521 529 530 531 537 539 540 543 544 545 546
- 548 552 556 557 558 560 561 562 565 567 568 569 570 571 572 573 574 576
- 577 579 581 582 583 584 585 587 588 590 591 592 599 603 604 608 610 614
- 616 618 619 620 622 624 627 628 632 633 634 636 639 643 645 648 650 651
- 654 655 657 659 661 662 663 664 665 666 670 672 677 679 680 681 682 683
- 685 690 691 692 693 694 696 697 699 700 702 706 711 714 715 716 718 723
- 725 726 728 730 731 734 735 737 741 743 744 746 749 750]</t>
+          <t>[  0   2   3   7   9  10  11  14  15  16  17  21  22  24  25  26  28  29
+  31  35  37  41  42  43  44  45  46  48  49  50  54  55  59  61  62  63
+  67  69  70  71  72  73  77  78  80  81  82  83  88  89  94  97 100 101
+ 102 103 104 109 110 113 115 116 117 118 122 123 125 127 129 130 131 135
+ 136 138 139 140 141 143 144 147 148 152 158 163 164 165 173 174 175 180
+ 182 186 188 189 193 196 200 201 204 205 206 207 208 209 210 213 217 218
+ 219 220 221 222 223 225 226 230 234 239 240 242 243 244 246 248 250 251
+ 258 263 267 270 272 273 274 275 277 280 283 286 287 288 289 296 297 298
+ 303 306 309 311 318 320 321 322 323 327 329 331 332 333 335 339 340 345
+ 346 347 349 350 351 354 355 356 357 358 361 363 365 366 367 368 369 370
+ 375 378 379 380 382 383 391 392 393 396 397 398 399 400 404 406 410 411
+ 412 414 415 417 418 420 423 424 427 428 430 431 434 435 436 437 438 441
+ 443 445 446 447 448 450 451 452 453 454 455 457 459 460 461 463 465 466
+ 467 471 472 473 474 475 476 477 480 482 484 486 488 490 493 494 496 500
+ 501 505 506 507 510 511 512 513 515 516 521 522 525 526 529 530 531 532
+ 533 534 538 539 540 541 542 543 545 546 548 549 551 552 553 555 558 562
+ 564 566 567 568 570 571 572 573 574 576 578 579 583 586 587 588 589 591
+ 594 596 598 603 608 609 610 611 614 618 619 623 624 626 629 630 631 634
+ 635 638 643 645 646 647 651 652 654 657 658 659 660 661 665 667 668 669
+ 670 671 673 674 677 678 680 682 684 685 689 693 695 698 700 701 702 703
+ 705 709 715 716 718 719 720 721 722 723 724 726 728 729 731 734 735 738
+ 740 747 752]</t>
         </is>
       </c>
       <c r="D5" t="n">
         <v>0.9736842105263158</v>
       </c>
       <c r="E5" t="n">
-        <v>17.90286540985107</v>
+        <v>18.88476777076721</v>
       </c>
     </row>
     <row r="6">
@@ -713,59 +715,59 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[1 0 0 0 1 1 0 0 1 0 1 1 1 1 1 0 0 1 1 1 0 0 0 1 0 0 0 0 1 0 1 1 1 1 0 0 1
- 0 1 1 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 1 0 1 1 0 1 1 0 1 1 1 1 1 0 1 0 1 1
- 1 0 0 1 1 1 0 0 0 1 1 1 1 0 0 1 0 0 1 0 1 1 0 0 1 1 1 0 1 1 1 0 1 0 1 0 1
- 1 0 1 0 0 0 1 1 1 0 1 0 1 0 1 1 1 1 0 0 0 0 0 0 0 0 1 0 0 1 0 1 1 0 1 0 1
- 1 1 0 0 1 0 1 0 0 0 1 0 1 1 1 0 0 0 1 0 1 1 0 1 1 0 1 0 1 0 0 0 1 1 0 1 0
- 1 1 1 1 0 0 0 1 0 1 0 1 0 1 1 1 1 1 0 1 1 1 0 0 0 0 1 0 0 1 0 0 1 0 1 1 0
- 0 1 0 1 1 1 0 0 0 1 1 1 1 0 1 0 0 0 0 0 1 0 1 1 1 1 0 1 0 0 1 1 1 0 0 1 0
- 0 1 0 0 0 1 1 1 0 0 0 0 1 1 1 0 1 0 0 0 0 1 1 1 0 1 1 1 0 0 0 1 0 0 0 1 0
- 1 0 0 1 1 0 0 1 0 0 1 1 1 0 1 1 0 0 0 0 0 1 1 0 1 1 1 1 1 1 1 1 0 1 1 1 1
- 1 1 0 1 1 0 0 1 0 1 1 1 1 1 1 1 0 1 1 0 1 1 0 1 0 0 0 0 1 1 0 0 0 1 0 1 0
- 1 0 0 0 0 0 0 1 0 0 1 1 1 0 0 1 1 0 0 0 1 1 1 1 1 0 1 0 1 0 1 0 0 0 1 0 0
- 0 1 1 1 1 1 0 1 0 0 0 1 1 1 0 0 1 1 0 1 1 1 0 1 1 1 1 1 1 1 0 1 1 1 0 1 1
- 1 1 1 0 0 1 0 0 0 1 1 0 0 1 0 0 0 0 1 0 0 1 0 1 1 1 1 0 0 0 1 0 1 0 1 0 0
- 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 1 0 0 0 1 1 0 1
- 1 1 0 0 0 0 0 0 0 1 0 0 1 1 0 0 0 1 1 0 0 1 1 1 0 0 1 1 0 0 0 0 1 1 1 1 0
- 1 0 1 1 1 1 1 1 1 0 1 0 1 1 0 0 1 1 0 1 0 1 0 1 0 1 0 0 1 1 0 0 1 1 1 0 1
- 1 1 0 0 0 0 0 0 0 1 0 1 0 1 1 0 1 1 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 1 0 1 0
- 1 0 1 1 1 1 0 1 0 0 0 1 1 1 1 1 1 1 0 0 0 1 1 1 0 1 1 1 0 0 1 0 1 1 1 0 1
- 1 1 0 0 1 0 1 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 1 1 0 1
- 0 0 1 1 0 1 0 0 1 0 0 1 0 1 1 1 1 0 0 0 1 0 0 0 1 0 0 0 1 0 1 0 1 0 1 0 1
- 1 0 1 1 0 1 1 1 0 0 1 1 0]</t>
+          <t>[1 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 1 1 1 0 0 0 0 1 0 1 1 0 1 0 1
+ 0 0 0 0 0 0 0 1 1 1 1 1 1 1 0 0 1 1 1 0 0 0 0 1 1 0 0 1 1 1 1 1 0 0 0 0 1
+ 0 0 1 1 1 0 0 1 0 0 1 0 0 0 1 0 0 1 1 0 0 0 1 1 0 0 0 0 0 1 0 0 1 0 0 0 1
+ 1 0 1 0 0 0 0 0 0 0 1 1 1 1 1 1 1 0 0 0 0 0 0 1 0 1 1 0 0 0 1 1 1 1 0 0 1
+ 1 0 1 1 1 1 0 1 0 0 0 1 0 0 1 1 0 1 0 1 1 0 1 1 0 0 1 0 1 1 0 0 1 1 0 0 0
+ 0 1 0 0 1 1 1 0 0 1 1 1 1 1 0 0 0 0 1 1 0 0 0 1 1 0 0 1 0 1 0 1 1 1 0 1 0
+ 0 0 0 0 1 1 0 0 0 1 1 1 1 1 1 0 0 1 1 1 1 1 0 0 0 1 1 0 1 0 0 0 0 1 0 0 1
+ 0 1 0 1 0 1 0 0 1 1 1 1 1 0 0 1 0 1 1 0 1 1 1 1 1 0 0 1 0 0 0 1 0 0 1 0 0
+ 1 1 0 1 0 0 1 1 0 0 1 1 0 0 1 0 1 0 1 1 1 0 1 0 1 0 0 1 1 1 0 0 0 0 0 0 0
+ 1 0 0 1 0 1 1 1 0 1 1 0 0 1 1 0 1 0 1 1 1 1 1 1 1 1 0 0 0 0 1 1 0 0 0 0 1
+ 1 1 0 0 1 0 0 1 0 1 0 0 1 0 0 0 0 1 0 1 0 0 0 0 0 1 1 0 1 0 0 1 0 0 1 1 0
+ 1 0 1 1 0 1 0 0 0 1 1 1 1 0 1 1 0 0 0 1 0 0 0 1 0 0 0 1 1 0 0 1 1 1 0 1 1
+ 0 0 0 0 1 1 0 0 0 1 0 1 0 1 1 0 0 1 1 0 0 0 1 0 1 0 1 0 1 0 1 0 1 1 0 0 0
+ 1 1 1 1 1 0 0 1 1 0 1 0 0 1 0 0 1 1 1 0 1 0 1 1 0 0 0 1 1 0 0 1 1 0 0 0 0
+ 0 0 1 1 0 1 0 0 0 0 0 0 1 1 1 0 1 1 1 0 1 0 1 1 1 0 0 1 1 0 0 0 1 1 1 0 1
+ 1 1 0 0 0 1 1 0 1 0 0 1 1 1 0 0 1 0 0 0 0 1 0 1 0 1 1 0 0 1 0 0 0 1 0 1 1
+ 1 1 0 1 1 1 0 0 0 1 1 0 0 0 1 1 1 0 1 1 0 1 1 0 1 1 0 0 0 1 0 0 0 0 0 1 0
+ 1 0 0 1 0 0 1 1 0 0 1 1 0 0 1 1 1 1 0 1 1 0 0 1 1 1 0 1 0 0 1 1 1 1 0 1 0
+ 1 0 0 0 1 1 0 0 1 1 0 0 1 1 0 1 1 0 0 1 1 0 1 1 1 1 1 0 0 0 1 1 0 1 1 1 0
+ 1 0 1 0 0 0 0 1 0 0 1 1 1 1 0 0 1 0 1 1 0 1 0 1 1 1 0 0 1 1 0 0 0 0 0 1 1
+ 1 0 0 0 0 0 1 1 1 0 1 0 0]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[  0   4   5   8  10  11  12  13  14  17  18  19  23  28  30  31  32  33
-  36  38  39  44  49  50  56  58  59  61  62  64  65  66  67  68  70  72
-  73  74  77  78  79  83  84  85  86  89  92  94  95  98  99 100 102 103
- 104 106 108 110 111 113 117 118 119 121 123 125 126 127 128 137 140 142
- 143 145 147 148 149 152 154 158 160 161 162 166 168 169 171 172 174 176
- 180 181 183 185 186 187 188 192 194 196 198 199 200 201 202 204 205 206
- 211 214 217 219 220 223 225 226 227 231 232 233 234 236 242 244 245 246
- 247 249 252 253 254 257 260 264 265 266 271 272 273 275 280 281 282 284
- 285 286 290 294 296 299 300 303 306 307 308 310 311 317 318 320 321 322
- 323 324 325 326 327 329 330 331 332 333 334 336 337 340 342 343 344 345
- 346 347 348 350 351 353 354 356 361 362 366 368 370 377 380 381 382 385
- 386 390 391 392 393 394 396 398 400 404 408 409 410 411 412 414 418 419
- 420 423 424 426 427 428 430 431 432 433 434 435 436 438 439 440 442 443
- 444 445 446 449 453 454 457 462 465 467 468 469 470 474 476 478 488 491
- 494 500 502 503 510 514 515 517 518 519 527 530 531 535 536 539 540 541
- 544 545 550 551 552 553 555 557 558 559 560 561 562 563 565 567 568 571
- 572 574 576 578 580 583 584 587 588 589 591 592 593 601 603 605 606 608
- 609 614 618 621 625 627 629 631 632 633 634 636 640 641 642 643 644 645
- 646 650 651 652 654 655 656 659 661 662 663 665 666 667 670 672 676 678
- 680 690 694 698 699 700 702 705 706 708 711 714 716 717 718 719 723 727
- 731 733 735 737 739 740 742 743 745 746 747 750 751]</t>
+          <t>[  0   1   5  15  16  17  22  23  24  29  31  32  34  36  44  45  46  47
+  48  49  50  53  54  55  60  61  64  65  66  67  68  73  76  77  78  81
+  84  88  91  92  96  97 103 106 110 111 113 121 122 123 124 125 126 127
+ 134 136 137 141 142 143 144 147 148 150 151 152 153 155 159 162 163 165
+ 167 168 170 171 174 176 177 180 181 186 189 190 191 194 195 196 197 198
+ 203 204 208 209 212 214 216 217 218 220 226 227 231 232 233 234 235 236
+ 239 240 241 242 243 247 248 250 255 258 260 262 264 267 268 269 270 271
+ 274 276 277 279 280 281 282 283 286 290 293 296 297 299 302 303 306 307
+ 310 312 314 315 316 318 320 323 324 325 333 336 338 339 340 342 343 346
+ 347 349 351 352 353 354 355 356 357 358 363 364 369 370 371 374 377 379
+ 382 387 389 395 396 398 401 404 405 407 409 410 412 416 417 418 419 421
+ 422 426 430 434 435 438 439 440 442 443 448 449 453 455 457 458 461 462
+ 466 468 470 472 474 476 477 481 482 483 484 485 488 489 491 494 497 498
+ 499 501 503 504 508 509 512 513 520 521 523 530 531 532 534 535 536 538
+ 540 541 542 545 546 550 551 552 554 555 556 560 561 563 566 567 568 571
+ 576 578 580 581 584 588 590 591 592 593 595 596 597 601 602 606 607 608
+ 610 611 613 614 616 617 621 627 629 632 635 636 639 640 643 644 645 646
+ 648 649 652 653 654 656 659 660 661 662 664 666 670 671 674 675 678 679
+ 681 682 685 686 688 689 690 691 692 696 697 699 700 701 703 705 710 713
+ 714 715 716 719 721 722 724 726 727 728 731 732 738 739 740 746 747 748
+ 750]</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.9868421052631579</v>
+        <v>0.9605263157894737</v>
       </c>
       <c r="E6" t="n">
-        <v>18.24800658226013</v>
+        <v>18.59143900871277</v>
       </c>
     </row>
     <row r="7">
@@ -774,58 +776,60 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[1 0 0 1 0 0 1 1 0 1 1 1 0 1 1 1 0 1 0 0 1 1 0 1 1 0 1 1 0 1 0 0 0 0 1 1 0
- 1 0 0 0 0 1 1 1 0 1 1 0 0 1 1 1 0 0 0 0 0 1 0 0 1 1 0 1 1 0 1 1 1 0 0 0 1
- 0 0 0 0 1 0 1 1 1 1 0 1 1 0 0 0 0 1 0 1 0 1 0 1 0 0 0 0 1 1 0 0 0 1 0 0 0
- 0 0 1 1 0 0 0 1 1 1 0 0 0 0 1 0 1 0 0 1 0 0 0 0 1 1 1 1 1 1 0 1 0 0 0 0 1
- 0 1 0 0 0 1 1 1 1 0 1 0 1 1 0 0 0 0 1 1 0 0 0 1 0 0 0 1 0 0 1 0 0 1 0 0 1
- 1 1 0 0 1 1 0 1 0 0 1 1 1 0 0 1 0 1 0 1 0 0 0 1 1 0 0 1 1 1 0 1 1 1 1 0 0
- 0 1 0 0 0 0 0 0 0 1 1 1 1 1 1 0 1 1 1 1 1 1 1 1 0 1 1 0 1 1 1 0 0 1 1 0 1
- 0 0 1 1 0 0 0 0 0 0 0 1 1 1 0 1 0 0 1 0 1 1 0 1 0 0 1 1 0 1 1 0 1 0 1 1 0
- 1 0 0 0 1 0 0 1 1 0 0 0 0 1 1 1 1 0 1 1 1 1 0 1 1 0 0 0 0 1 0 1 1 1 0 0 0
- 0 1 1 1 0 0 0 1 1 0 1 1 0 0 0 1 0 1 1 0 0 0 0 1 0 0 1 0 1 1 0 1 0 0 1 0 1
- 0 1 1 1 1 1 0 1 0 0 0 0 0 1 1 1 0 0 0 1 0 0 1 1 0 0 1 0 1 0 0 1 1 1 0 0 0
- 1 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 1 1 0 1 1 0 0 0 0 1 0 1 0 1 1 1 0 0 0
- 0 0 0 0 0 0 1 0 1 1 0 0 1 1 1 0 0 1 0 1 0 0 0 1 0 1 0 0 1 1 0 0 1 0 0 0 1
- 0 0 0 1 0 0 0 1 0 1 1 0 1 1 0 1 1 0 0 1 0 0 1 1 1 1 1 1 0 1 0 1 1 0 1 1 1
- 1 1 0 1 1 1 1 1 1 0 0 0 1 1 1 1 1 1 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0
- 1 0 0 1 1 0 0 1 1 0 1 0 1 1 1 1 1 1 1 1 0 1 0 1 1 1 1 1 0 1 0 0 0 0 1 1 0
- 0 1 1 1 0 1 1 0 1 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 1 1 1 0 1 0 0 0 0 1 0 0
- 0 1 0 0 1 0 0 1 1 1 0 0 0 1 0 1 0 1 0 0 0 1 0 0 1 1 1 1 0 0 0 1 1 0 0 1 1
- 1 0 0 1 1 0 0 1 0 0 1 1 0 0 1 1 0 0 0 1 1 0 1 0 1 1 1 1 1 0 0 1 1 0 0 1 1
- 0 0 0 0 1 0 0 0 1 1 0 0 0 1 0 0 0 1 1 0 1 0 0 0 0 1 0 1 0 1 1 1 1 0 1 1 1
- 0 1 1 0 0 0 0 1 0 0 0 0 0]</t>
+          <t>[0 0 1 1 0 1 1 1 1 1 1 0 0 0 1 0 1 1 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 1 0
+ 0 0 0 1 1 0 1 0 0 1 0 1 1 0 1 1 0 1 1 1 0 1 0 0 1 1 0 1 1 1 1 1 0 0 0 0 0
+ 1 1 1 1 1 0 0 0 1 0 0 0 0 0 1 1 0 1 0 0 0 0 1 0 0 0 0 1 1 0 1 0 1 1 1 1 1
+ 1 0 1 1 1 1 0 1 0 1 1 1 0 0 0 0 0 1 0 1 1 1 1 0 0 0 0 1 1 0 0 1 1 0 0 0 0
+ 0 0 0 0 0 0 1 0 1 1 1 1 1 1 1 1 0 0 0 1 1 1 0 1 0 0 1 1 0 1 1 1 1 0 1 0 1
+ 0 1 0 0 0 0 0 0 1 1 0 1 0 0 1 1 0 0 1 1 0 1 1 1 1 1 1 1 1 0 1 0 1 1 0 1 1
+ 0 1 1 1 1 1 0 1 1 0 0 1 0 0 1 0 0 0 0 1 1 0 0 1 0 0 0 1 1 1 0 1 0 1 0 1 1
+ 1 0 1 1 0 0 1 0 0 0 0 1 0 0 0 1 0 1 0 0 0 1 0 0 0 1 1 0 1 0 0 0 1 1 0 1 1
+ 0 0 0 0 0 1 0 0 1 1 1 1 1 0 1 0 1 1 0 1 0 1 1 0 0 0 1 0 0 0 0 0 0 1 1 1 1
+ 1 0 1 0 1 0 0 1 1 0 0 1 1 0 1 1 1 0 0 0 0 1 0 0 1 0 1 0 1 0 0 1 1 1 1 0 0
+ 1 1 0 1 1 0 1 0 0 0 0 1 1 0 1 1 1 1 1 1 0 0 1 0 0 1 1 1 1 1 1 1 0 1 1 0 1
+ 1 1 1 1 0 0 0 0 0 1 1 1 1 1 1 1 0 1 0 0 1 0 1 0 1 0 1 1 0 1 1 0 1 0 0 0 0
+ 0 0 1 1 1 1 1 1 0 1 0 0 1 1 0 1 1 0 0 0 0 1 1 1 1 0 1 1 0 0 1 1 0 1 0 1 1
+ 0 0 0 0 0 1 0 1 0 0 1 1 1 0 1 0 1 1 1 1 1 1 1 0 1 1 0 0 0 1 0 1 1 0 1 0 0
+ 1 0 1 0 0 0 0 1 1 0 1 0 0 1 1 1 1 0 0 1 0 0 0 0 1 1 1 1 1 1 0 1 1 1 1 0 0
+ 1 1 0 1 1 1 0 0 0 0 1 0 0 1 1 0 0 1 0 0 1 0 1 0 0 1 0 0 0 0 0 0 1 0 0 1 1
+ 1 0 0 1 1 1 1 0 0 1 0 1 1 0 1 1 0 1 0 0 0 0 1 1 1 1 0 1 0 0 1 1 0 0 1 1 0
+ 1 0 0 0 0 1 0 1 1 1 0 0 1 1 1 1 0 1 1 1 1 1 1 1 1 0 1 1 1 0 1 1 0 0 0 1 0
+ 1 1 1 0 0 1 1 0 1 1 0 1 1 1 1 1 1 0 1 0 0 0 0 0 1 0 0 0 1 1 1 1 0 0 1 0 1
+ 1 0 1 0 0 0 0 0 1 1 0 1 0 0 1 1 0 0 0 0 1 1 0 1 1 0 1 0 0 1 0 1 1 0 1 1 0
+ 1 1 0 1 0 0 1 1 0 1 1 0 0]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[  0   3   6   7   9  10  11  13  14  15  17  20  21  23  24  26  27  29
-  34  35  37  42  43  44  46  47  50  51  52  58  61  62  64  65  67  68
-  69  73  78  80  81  82  83  85  86  91  93  95  97 102 103 107 113 114
- 118 119 120 125 127 130 135 136 137 138 139 140 142 147 149 153 154 155
- 156 158 160 161 166 167 171 175 178 181 184 185 186 189 190 192 195 196
- 197 200 202 204 208 209 212 213 214 216 217 218 219 223 231 232 233 234
- 235 236 238 239 240 241 242 243 244 245 247 248 250 251 252 255 256 258
- 261 262 270 271 272 274 277 279 280 282 285 286 288 289 291 293 294 296
- 300 303 304 309 310 311 312 314 315 316 317 319 320 325 327 328 329 334
- 335 336 340 341 343 344 348 350 351 356 359 361 362 364 367 369 371 372
- 373 374 375 377 383 384 385 389 392 393 396 398 401 402 403 407 409 411
- 413 424 425 426 428 429 434 436 438 439 440 450 452 453 456 457 458 461
- 463 467 469 472 473 476 480 484 488 490 491 493 494 496 497 500 503 504
- 505 506 507 508 510 512 513 515 516 517 518 519 521 522 523 524 525 526
- 530 531 532 533 534 535 536 539 544 553 555 558 559 562 563 565 567 568
- 569 570 571 572 573 574 576 578 579 580 581 582 584 589 590 593 594 595
- 597 598 600 601 604 611 616 617 618 619 621 626 630 633 636 637 638 642
- 644 646 650 653 654 655 656 660 661 664 665 666 669 670 673 676 677 680
- 681 685 686 688 690 691 692 693 694 697 698 701 702 707 711 712 716 720
- 721 723 728 730 732 733 734 735 737 738 739 741 742 747]</t>
+          <t>[  2   3   5   6   7   8   9  10  14  16  17  18  22  27  33  35  40  41
+  43  46  48  49  51  52  54  55  56  58  61  62  64  65  66  67  68  74
+  75  76  77  78  82  88  89  91  96 101 102 104 106 107 108 109 110 111
+ 113 114 115 116 118 120 121 122 128 130 131 132 133 138 139 142 143 154
+ 156 157 158 159 160 161 162 163 167 168 169 171 174 175 177 178 179 180
+ 182 184 186 193 194 196 199 200 203 204 206 207 208 209 210 211 212 213
+ 215 217 218 220 221 223 224 225 226 227 229 230 233 236 241 242 245 249
+ 250 251 253 255 257 258 259 261 262 265 270 274 276 280 284 285 287 291
+ 292 294 295 301 304 305 306 307 308 310 312 313 315 317 318 322 329 330
+ 331 332 333 335 337 340 341 344 345 347 348 349 354 357 359 361 364 365
+ 366 367 370 371 373 374 376 381 382 384 385 386 387 388 389 392 395 396
+ 397 398 399 400 401 403 404 406 407 408 409 410 416 417 418 419 420 421
+ 422 424 427 429 431 433 434 436 437 439 446 447 448 449 450 451 453 456
+ 457 459 460 465 466 467 468 470 471 474 475 477 479 480 486 488 491 492
+ 493 495 497 498 499 500 501 502 503 505 506 510 512 513 515 518 520 525
+ 526 528 531 532 533 534 537 542 543 544 545 546 547 549 550 551 552 555
+ 556 558 559 560 565 568 569 572 575 577 580 587 590 591 592 595 596 597
+ 598 601 603 604 606 607 609 614 615 616 617 619 622 623 626 627 629 634
+ 636 637 638 641 642 643 644 646 647 648 649 650 651 652 653 655 656 657
+ 659 660 664 666 667 668 671 672 674 675 677 678 679 680 681 682 684 690
+ 694 695 696 697 700 702 703 705 711 712 714 717 718 723 724 726 727 729
+ 732 734 735 737 738 740 741 743 746 747 749 750]</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.9736842105263158</v>
+        <v>0.9605263157894737</v>
       </c>
       <c r="E7" t="n">
-        <v>18.180330991745</v>
+        <v>19.12016940116882</v>
       </c>
     </row>
     <row r="8">
@@ -834,59 +838,58 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[0 0 1 1 0 1 0 0 0 0 1 1 0 0 1 0 1 1 1 0 0 0 0 0 0 1 1 1 0 1 0 0 1 0 1 0 1
- 0 1 0 0 1 1 1 0 0 0 1 0 1 0 1 0 0 0 0 1 1 1 0 1 0 0 0 0 1 1 1 0 0 0 0 0 1
- 1 0 0 0 1 0 1 0 0 1 0 0 1 1 0 1 0 0 0 1 0 1 1 0 0 0 0 1 0 1 0 1 1 1 1 1 0
- 0 0 1 0 1 1 1 1 1 1 0 0 1 0 1 0 1 0 1 0 0 1 0 1 0 1 1 1 1 1 1 0 0 1 0 0 0
- 1 0 1 1 1 0 1 1 1 0 0 0 0 0 1 1 0 0 1 0 1 0 1 1 1 0 1 0 0 0 1 1 0 1 0 1 0
- 0 0 0 0 1 1 1 0 0 0 1 1 1 0 0 1 1 1 0 1 1 1 1 0 1 1 1 0 1 0 0 0 1 0 1 1 1
- 1 1 0 0 1 1 1 1 0 0 0 0 0 1 1 1 0 0 1 1 1 1 1 1 1 1 0 1 1 1 0 1 0 0 0 0 1
- 0 1 0 1 1 1 1 0 0 1 1 1 0 1 0 1 1 1 1 0 0 1 1 1 1 1 0 1 0 0 0 0 1 1 0 1 0
- 0 1 0 1 1 0 1 1 0 1 1 0 0 1 0 0 1 0 1 1 0 0 0 1 1 1 1 1 0 1 0 1 0 0 0 0 1
- 1 0 1 1 0 1 1 0 0 0 0 0 0 0 0 1 1 0 1 0 0 1 1 1 1 0 0 0 0 1 1 0 0 1 0 1 0
- 0 1 0 1 1 1 1 0 1 0 0 1 0 0 1 1 1 1 0 1 0 0 0 1 0 0 1 1 1 1 0 1 0 0 0 0 1
- 1 0 1 0 1 0 0 0 0 0 1 1 0 1 0 0 0 1 1 1 1 1 1 0 0 1 0 0 0 1 0 1 1 1 1 0 0
- 1 1 0 0 0 0 1 1 1 1 0 1 0 0 0 0 1 1 0 0 0 1 1 1 1 0 0 1 0 1 0 0 0 1 1 1 1
- 0 1 0 1 1 0 1 0 1 1 0 1 0 0 1 0 1 1 0 1 0 1 0 0 1 1 1 0 0 0 0 0 0 0 1 0 0
- 1 0 0 1 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 1 1 1 1 0 1 1 0 0 1 1 0 0 1 0 0 0 1
- 0 0 1 0 1 0 0 1 1 1 0 0 0 1 0 1 1 0 1 0 1 0 0 0 0 1 1 0 1 0 0 1 0 0 1 1 1
- 1 1 0 1 1 1 0 0 1 0 0 1 1 0 1 1 0 0 1 0 1 1 0 0 0 1 1 1 1 0 1 0 1 0 1 1 1
- 0 1 0 0 1 0 1 1 0 1 0 0 1 1 0 0 0 1 0 1 1 1 1 0 0 1 1 0 1 1 1 0 0 1 1 0 1
- 0 0 0 1 1 0 0 0 0 0 1 0 1 0 0 0 0 0 1 1 0 0 1 1 0 1 0 0 1 1 1 0 1 1 1 1 1
- 1 1 1 0 0 0 0 1 0 1 1 1 0 1 0 0 0 0 1 0 0 1 0 0 1 1 0 0 0 1 0 1 0 1 0 0 0
- 0 0 1 0 1 1 0 0 0 1 1 0 1]</t>
+          <t>[1 0 1 0 1 1 0 0 1 0 0 1 1 1 0 1 0 1 1 0 1 0 1 1 1 0 0 1 1 1 0 1 1 1 0 1 1
+ 0 1 1 0 0 1 1 0 0 1 1 1 0 0 1 0 0 1 1 0 0 0 0 1 0 1 0 0 1 1 0 1 0 0 0 1 0
+ 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0
+ 0 1 0 1 1 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 1 1 0 1 0 1 0 0 1 1
+ 0 0 0 1 1 0 1 0 0 1 1 0 0 0 1 1 1 1 1 0 0 0 0 1 1 0 0 0 1 0 0 0 1 1 0 0 0
+ 0 0 0 1 0 1 0 1 1 0 0 0 0 1 0 1 0 1 1 1 1 1 0 0 0 0 1 1 1 0 1 1 1 0 1 0 1
+ 1 1 1 1 1 1 1 0 1 0 0 1 0 0 1 1 0 1 0 1 0 0 0 1 1 0 1 1 0 1 0 1 1 1 1 0 1
+ 1 1 0 1 0 1 1 1 1 0 0 1 1 0 1 0 1 0 0 0 0 0 0 0 1 0 1 1 1 0 1 0 0 1 0 0 0
+ 0 0 1 0 1 1 0 0 0 0 0 0 0 1 1 1 0 1 0 1 0 0 0 1 0 1 0 0 1 0 1 0 1 0 0 0 0
+ 0 1 1 1 1 0 0 0 0 1 1 1 0 1 0 1 1 1 1 0 0 1 0 0 1 0 0 1 0 0 1 1 0 1 1 1 0
+ 1 0 1 1 1 1 1 0 1 0 0 1 1 1 1 0 1 1 0 1 0 1 1 1 1 1 1 1 1 1 0 1 0 0 1 1 1
+ 1 1 1 0 1 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 1 1 1 1 0 0 0 1 1 1
+ 0 0 0 0 1 0 0 0 0 0 1 0 1 1 0 0 0 0 0 1 0 1 0 1 1 1 1 0 1 0 1 0 1 0 1 1 0
+ 0 0 1 0 1 1 0 0 1 1 1 1 1 1 0 0 0 1 1 0 0 1 0 0 1 0 1 1 0 1 0 1 1 1 0 0 1
+ 1 0 0 1 1 0 1 1 1 0 0 0 0 0 1 0 0 0 0 1 1 1 0 1 0 0 0 1 1 1 0 1 1 0 0 0 0
+ 1 1 0 0 0 0 0 1 1 1 1 1 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 1 1 0 1 1 1 0 1 0
+ 1 1 1 0 1 1 0 1 1 1 1 1 1 0 1 0 0 1 1 0 1 0 1 1 0 1 0 1 0 1 1 1 1 0 0 1 0
+ 1 1 1 1 1 1 1 1 0 0 1 0 0 0 1 0 1 1 1 1 0 0 0 0 0 1 1 0 1 1 1 1 1 0 0 0 1
+ 1 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 1 1 1 0 1 1 1 1
+ 1 1 0 0 0 1 0 0 0 1 0 1 0 1 0 1 0 1 0 1 0 0 0 1 1 1 1 0 0 0 1 0 0 0 0 1 0
+ 1 1 1 1 0 0 1 0 0 1 1 1 0]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[  2   3   5  10  11  14  16  17  18  25  26  27  29  32  34  36  38  41
-  42  43  47  49  51  56  57  58  60  65  66  67  73  74  78  80  83  86
-  87  89  93  95  96 101 103 105 106 107 108 109 113 115 116 117 118 119
- 120 123 125 127 129 132 134 136 137 138 139 140 141 144 148 150 151 152
- 154 155 156 162 163 166 168 170 171 172 174 178 179 181 183 189 190 191
- 195 196 197 200 201 202 204 205 206 207 209 210 211 213 217 219 220 221
- 222 223 226 227 228 229 235 236 237 240 241 242 243 244 245 246 247 249
- 250 251 253 258 260 262 263 264 265 268 269 270 272 274 275 276 277 280
- 281 282 283 284 286 291 292 294 297 299 300 302 303 305 306 309 312 314
- 315 319 320 321 322 323 325 327 332 333 335 336 338 339 348 349 351 354
- 355 356 357 362 363 366 368 371 373 374 375 376 378 381 384 385 386 387
- 389 393 396 397 398 399 401 406 407 409 411 417 418 420 424 425 426 427
- 428 429 432 436 438 439 440 441 444 445 450 451 452 453 455 460 461 465
- 466 467 468 471 473 477 478 479 480 482 484 485 487 489 490 492 495 497
- 498 500 502 505 506 507 515 518 521 523 524 530 537 538 539 540 542 543
- 546 547 550 554 557 559 562 563 564 568 570 571 573 575 580 581 583 586
- 589 590 591 592 593 595 596 597 600 603 604 606 607 610 612 613 617 618
- 619 620 622 624 626 627 628 630 633 635 636 638 641 642 646 648 649 650
- 651 654 655 657 658 659 662 663 665 669 670 676 678 684 685 688 689 691
- 694 695 696 698 699 700 701 702 703 704 705 710 712 713 714 716 721 724
- 727 728 732 734 736 742 744 745 749 750 752]</t>
+          <t>[  0   2   4   5   8  11  12  13  15  17  18  20  22  23  24  27  28  29
+  31  32  33  35  36  38  39  42  43  46  47  48  51  54  55  60  62  65
+  66  68  72  76  79  84  90  91  98 107 112 114 115 116 126 128 131 138
+ 139 141 143 146 147 151 152 154 157 158 162 163 164 165 166 171 172 176
+ 180 181 188 190 192 193 198 200 202 203 204 205 206 211 212 213 215 216
+ 217 219 221 222 223 224 225 226 227 228 230 233 236 237 239 241 245 246
+ 248 249 251 253 254 255 256 258 259 260 262 264 265 266 267 270 271 273
+ 275 283 285 286 287 289 292 298 300 301 309 310 311 313 315 319 321 324
+ 326 328 334 335 336 337 342 343 344 346 348 349 350 351 354 357 360 363
+ 364 366 367 368 370 372 373 374 375 376 378 381 382 383 384 386 387 389
+ 391 392 393 394 395 396 397 398 399 401 404 405 406 407 408 409 411 412
+ 413 422 428 431 434 435 436 437 441 442 443 448 454 456 457 463 465 467
+ 468 469 470 472 474 476 478 479 483 485 486 489 490 491 492 493 494 498
+ 499 502 505 507 508 510 512 513 514 517 518 521 522 524 525 526 532 537
+ 538 539 541 545 546 547 549 550 555 556 562 563 564 565 566 570 572 580
+ 583 584 586 587 588 590 592 593 594 596 597 599 600 601 602 603 604 606
+ 609 610 612 614 615 617 619 621 622 623 624 627 629 630 631 632 633 634
+ 635 636 639 643 645 646 647 648 654 655 657 658 659 660 661 665 666 669
+ 671 674 682 687 690 695 696 697 699 700 701 702 703 704 708 712 714 716
+ 718 720 722 726 727 728 729 733 738 740 741 742 743 746 749 750 751]</t>
         </is>
       </c>
       <c r="D8" t="n">
         <v>0.9736842105263158</v>
       </c>
       <c r="E8" t="n">
-        <v>17.674800157547</v>
+        <v>18.38525629043579</v>
       </c>
     </row>
     <row r="9">
@@ -895,60 +898,60 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[1 1 1 1 1 0 0 1 1 0 1 0 0 0 1 1 0 1 1 0 0 1 0 1 0 1 1 1 0 0 1 1 1 1 0 0 0
- 1 0 1 1 0 1 0 1 1 1 0 1 1 0 1 0 0 0 0 1 1 0 1 0 0 1 0 1 1 0 1 0 1 0 1 1 0
- 1 0 0 0 0 1 1 1 1 0 1 1 1 0 1 1 0 0 0 0 1 0 1 1 1 0 0 0 1 1 1 1 0 0 1 1 1
- 0 0 1 0 0 1 1 0 0 1 1 0 1 0 0 0 0 0 0 0 1 1 1 0 0 0 0 1 1 0 1 0 0 0 0 1 0
- 1 0 1 0 0 1 0 0 1 0 1 1 1 1 1 0 1 1 1 1 1 0 1 1 1 0 1 1 0 1 1 1 0 0 1 1 0
- 1 1 1 1 0 0 1 1 0 0 0 1 0 0 1 1 0 0 0 1 0 0 0 0 1 0 1 0 0 1 0 1 1 0 0 1 0
- 1 0 1 0 1 1 0 0 1 1 1 1 0 0 0 1 0 1 0 1 0 0 0 0 0 1 1 1 0 0 1 1 1 0 0 0 1
- 0 1 0 1 1 1 1 0 0 0 1 0 1 1 1 0 1 1 0 1 0 0 0 0 1 1 0 1 0 0 1 0 0 1 0 0 0
- 0 1 0 0 1 1 1 0 0 0 0 1 0 0 1 0 0 1 0 0 1 0 0 0 0 1 1 0 0 0 0 0 1 0 0 1 1
- 1 1 1 0 0 1 0 0 0 1 1 0 1 0 1 1 1 0 0 1 1 1 1 0 1 0 0 1 1 0 0 0 0 1 0 0 1
- 1 1 0 0 0 1 0 1 0 0 1 0 1 0 0 0 0 0 1 1 0 0 0 1 0 1 0 1 0 0 1 0 1 0 0 0 1
- 1 0 1 0 0 1 0 0 1 1 1 0 1 0 0 0 1 1 1 1 1 1 0 1 1 1 0 1 0 1 0 1 1 0 1 1 1
- 0 1 1 1 0 1 1 0 0 1 1 1 1 1 0 1 1 0 1 0 1 1 0 1 0 0 0 1 0 1 0 1 0 1 1 1 0
- 0 1 0 0 0 1 1 0 1 1 0 1 0 1 0 1 1 1 0 0 1 0 1 1 0 0 0 1 0 1 0 1 1 0 0 0 0
- 1 0 0 1 0 0 0 1 1 1 1 0 0 0 0 0 1 0 1 0 0 0 0 0 1 0 1 0 1 1 0 1 1 1 0 1 1
- 0 1 0 0 0 0 1 0 1 1 0 0 0 1 0 1 0 1 0 1 1 0 1 0 1 0 0 1 1 1 1 0 1 1 1 0 1
- 1 1 1 1 0 1 0 1 0 1 1 0 0 1 1 1 0 0 1 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 1 1
- 0 1 1 0 1 0 0 0 1 1 1 1 0 0 1 1 0 1 1 0 0 1 0 0 0 0 1 0 1 1 0 1 1 1 0 0 0
- 1 1 0 0 1 1 1 1 1 0 1 1 0 1 1 1 1 0 0 1 1 0 1 1 1 0 1 0 1 0 0 0 1 1 0 0 0
- 0 1 1 0 1 0 1 1 1 1 1 0 1 0 1 0 0 1 1 0 0 0 1 1 1 1 0 1 0 0 1 1 1 1 1 1 1
- 0 1 0 1 1 1 1 1 1 1 1 0 1]</t>
+          <t>[1 0 0 1 0 0 0 1 0 0 0 0 1 1 1 0 0 1 1 0 0 0 0 1 1 0 1 1 1 0 1 0 0 1 1 1 1
+ 0 1 0 1 1 1 0 1 1 0 0 0 0 0 1 0 1 0 1 1 1 0 1 0 1 1 1 0 0 0 0 0 0 1 1 1 1
+ 0 0 1 1 1 0 0 0 1 0 1 1 0 1 0 0 1 0 0 1 1 0 0 0 0 0 0 1 0 1 1 0 0 0 1 0 1
+ 0 1 1 1 1 1 1 1 1 1 0 1 1 1 1 0 0 1 1 1 0 0 1 1 1 0 0 1 0 1 0 1 0 1 0 1 1
+ 0 0 1 0 0 0 1 0 0 1 0 0 0 0 1 1 0 0 1 0 1 0 1 0 0 0 1 1 1 1 0 0 0 0 1 1 1
+ 0 1 1 0 1 1 1 0 0 0 0 1 0 1 1 1 0 1 0 0 1 1 1 0 0 0 1 0 1 1 1 0 1 0 0 1 0
+ 1 0 1 0 1 1 0 1 0 1 1 1 1 1 1 1 1 0 1 1 1 1 1 1 0 1 0 1 0 0 1 0 1 1 1 1 0
+ 1 1 1 0 1 0 1 0 0 0 0 1 1 1 1 1 1 1 0 0 0 0 1 1 0 1 0 0 1 1 0 1 1 0 1 1 1
+ 0 0 1 0 1 0 0 1 0 0 1 1 1 0 1 1 1 1 0 0 0 0 1 1 0 1 1 1 1 0 0 1 1 0 0 0 0
+ 0 0 0 1 1 0 1 0 0 0 0 1 0 1 1 0 1 0 0 0 1 0 1 1 0 1 1 1 1 0 0 0 1 1 1 1 0
+ 1 1 0 0 1 1 1 0 1 1 0 0 1 0 1 0 1 1 0 1 0 0 1 0 0 0 1 0 1 1 1 0 1 0 0 0 0
+ 1 1 1 0 0 1 1 1 1 1 1 0 1 1 1 0 1 1 1 1 1 1 0 0 0 1 1 0 0 0 0 1 1 1 0 1 0
+ 0 1 1 1 0 1 0 1 0 0 1 0 0 1 0 1 1 1 1 1 1 1 1 1 0 0 1 1 0 0 1 1 1 1 0 1 1
+ 0 0 0 0 0 0 1 0 0 1 1 1 0 0 0 1 0 1 1 0 0 1 1 1 0 1 1 0 1 0 1 0 0 0 1 1 1
+ 0 0 1 1 0 0 0 0 1 0 1 0 1 0 1 1 1 0 0 1 0 0 0 0 1 1 1 1 0 1 0 1 0 1 0 0 0
+ 1 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 1 1 1 0 0 0 0 1 1 1 0 0 1 0 1 1 0 1 1 1
+ 0 1 0 1 1 1 0 0 0 0 1 0 1 1 0 1 0 1 0 1 1 1 0 0 0 1 0 0 1 0 0 1 0 1 0 1 1
+ 0 1 1 0 1 0 1 0 0 1 1 1 0 0 0 1 0 0 1 0 1 0 1 0 1 1 1 1 1 0 0 0 1 1 0 0 0
+ 0 1 0 0 1 0 0 1 1 1 1 0 1 1 0 0 1 0 0 1 1 1 1 1 0 1 0 0 1 1 1 1 0 1 1 0 1
+ 1 1 0 1 0 0 1 0 1 1 0 0 1 1 0 1 0 1 0 1 1 0 0 0 1 0 1 1 1 0 0 0 0 0 0 1 1
+ 1 1 0 0 1 1 1 0 0 0 0 0 1]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[  0   1   2   3   4   7   8  10  14  15  17  18  21  23  25  26  27  30
-  31  32  33  37  39  40  42  44  45  46  48  49  51  56  57  59  62  64
-  65  67  69  71  72  74  79  80  81  82  84  85  86  88  89  94  96  97
-  98 102 103 104 105 108 109 110 113 116 117 120 121 123 131 132 133 138
- 139 141 146 148 150 153 156 158 159 160 161 162 164 165 166 167 168 170
- 171 172 174 175 177 178 179 182 183 185 186 187 188 191 192 196 199 200
- 204 209 211 214 216 217 220 222 224 226 227 230 231 232 233 237 239 241
- 247 248 249 252 253 254 258 260 262 263 264 265 269 271 272 273 275 276
- 278 283 284 286 289 292 297 300 301 302 307 310 313 316 321 322 328 331
- 332 333 334 335 338 342 343 345 347 348 349 352 353 354 355 357 360 361
- 366 369 370 371 375 377 380 382 388 389 393 395 397 400 402 406 407 409
- 412 415 416 417 419 423 424 425 426 427 428 430 431 432 434 436 438 439
- 441 442 443 445 446 447 449 450 453 454 455 456 457 459 460 462 464 465
- 467 471 473 475 477 478 479 482 486 487 489 490 492 494 496 497 498 501
- 503 504 508 510 512 513 518 521 525 526 527 528 534 536 542 544 546 547
- 549 550 551 553 554 556 561 563 564 568 570 572 574 575 577 579 582 583
- 584 585 587 588 589 591 592 593 594 595 597 599 601 602 605 606 607 610
- 611 615 623 626 627 628 630 631 633 637 638 639 640 643 644 646 647 650
- 655 657 658 660 661 662 666 667 670 671 672 673 674 676 677 679 680 681
- 682 685 686 688 689 690 692 694 698 699 704 705 707 709 710 711 712 713
- 715 717 720 721 725 726 727 728 730 733 734 735 736 737 738 739 741 743
- 744 745 746 747 748 749 750 752]</t>
+          <t>[  0   3   7  12  13  14  17  18  23  24  26  27  28  30  33  34  35  36
+  38  40  41  42  44  45  51  53  55  56  57  59  61  62  63  70  71  72
+  73  76  77  78  82  84  85  87  90  93  94 101 103 104 108 110 112 113
+ 114 115 116 117 118 119 120 122 123 124 125 128 129 130 133 134 135 138
+ 140 142 144 146 147 150 154 157 162 163 166 168 170 174 175 176 177 182
+ 183 184 186 187 189 190 191 196 198 199 200 202 205 206 207 211 213 214
+ 215 217 220 222 224 226 227 229 231 232 233 234 235 236 237 238 240 241
+ 242 243 244 245 247 249 252 254 255 256 257 259 260 261 263 265 270 271
+ 272 273 274 275 276 281 282 284 287 288 290 291 293 294 295 298 300 303
+ 306 307 308 310 311 312 313 318 319 321 322 323 324 327 328 336 337 339
+ 344 346 347 349 353 355 356 358 359 360 361 365 366 367 368 370 371 374
+ 375 376 378 379 382 384 386 387 389 392 396 398 399 400 402 407 408 409
+ 412 413 414 415 416 417 419 420 421 423 424 425 426 427 428 432 433 438
+ 439 440 442 445 446 447 449 451 454 457 459 460 461 462 463 464 465 466
+ 467 470 471 474 475 476 477 479 480 487 490 491 492 496 498 499 502 503
+ 504 506 507 509 511 515 516 517 520 521 526 528 530 532 533 534 537 542
+ 543 544 545 547 549 551 555 556 565 566 572 573 574 579 580 581 584 586
+ 587 589 590 591 593 595 596 597 602 604 605 607 609 611 612 613 617 620
+ 623 625 627 628 630 631 633 635 638 639 640 644 647 649 651 653 654 655
+ 656 657 661 662 667 670 673 674 675 676 678 679 682 685 686 687 688 689
+ 691 694 695 696 697 699 700 702 703 704 706 709 711 712 715 716 718 720
+ 722 723 727 729 730 731 738 739 740 741 744 745 746 752]</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.9868421052631579</v>
+        <v>0.9605263157894737</v>
       </c>
       <c r="E9" t="n">
-        <v>19.20076727867126</v>
+        <v>19.45786333084106</v>
       </c>
     </row>
     <row r="10">
@@ -957,64 +960,59 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[1 1 0 0 0 0 0 1 1 0 1 1 1 0 0 0 1 1 0 0 1 1 1 0 1 0 0 1 1 1 1 1 0 0 1 0 1
- 1 0 0 0 0 1 1 1 0 0 1 0 1 1 1 1 1 0 1 0 1 0 1 1 1 1 1 1 0 1 0 1 1 0 0 1 1
- 1 1 1 1 0 0 0 0 1 0 0 0 1 1 1 1 0 1 0 1 1 0 1 1 1 0 1 1 0 0 0 0 0 1 1 0 0
- 1 0 0 1 1 1 1 1 1 1 0 1 1 1 0 1 1 1 1 0 1 1 1 0 0 1 0 1 1 1 0 1 0 0 1 1 1
- 1 0 0 0 1 0 0 0 1 0 1 1 0 1 1 1 1 1 1 1 0 1 1 1 1 0 1 1 0 0 1 0 1 1 0 0 1
- 1 1 0 0 1 1 0 0 1 0 1 1 0 1 0 0 1 0 0 0 1 0 1 1 1 1 0 1 0 1 1 0 1 1 1 1 0
- 0 0 1 0 1 1 0 0 0 1 0 0 0 0 1 1 1 0 1 1 1 0 1 0 0 1 1 0 1 1 0 1 1 1 1 1 0
- 0 1 1 0 1 0 0 1 1 0 1 1 1 0 1 0 0 0 0 1 1 0 0 1 1 0 1 1 1 1 0 1 1 1 1 1 1
- 0 1 1 0 0 0 1 0 1 0 1 1 1 1 1 1 0 0 0 0 1 0 1 0 1 0 1 0 0 0 1 1 0 1 1 1 1
- 1 1 1 1 1 1 1 0 0 0 1 0 1 0 1 1 0 1 1 1 1 1 1 0 1 1 0 1 1 1 0 1 1 0 1 0 1
- 0 1 1 1 1 0 1 0 1 1 1 1 1 0 0 1 1 1 1 1 0 1 1 1 1 0 1 1 1 0 0 0 1 0 0 0 1
- 1 0 1 1 0 1 0 0 0 1 1 1 1 1 1 1 1 0 1 0 0 1 1 0 1 0 1 0 0 0 0 0 1 0 1 1 0
- 1 0 1 1 0 0 1 1 0 1 0 1 0 1 1 1 0 1 1 0 0 1 0 0 0 1 1 1 1 1 1 0 1 1 1 1 1
- 1 1 0 0 1 0 0 1 0 0 1 1 0 0 1 0 0 1 1 1 0 0 1 1 0 1 1 1 1 1 1 0 1 0 1 0 0
- 1 1 1 0 1 1 0 1 0 1 0 1 1 1 1 0 1 1 0 1 0 1 1 1 1 1 1 1 0 0 0 1 0 1 1 0 1
- 1 1 0 0 1 1 0 1 0 1 0 0 1 0 0 1 1 1 1 0 0 0 1 1 1 0 0 1 0 1 1 0 1 0 1 1 0
- 1 1 0 1 1 0 1 1 0 1 0 0 1 1 1 1 1 0 1 1 1 1 0 1 0 1 0 1 0 0 1 0 1 1 1 1 0
- 1 1 0 1 1 1 1 0 1 1 1 1 1 1 1 1 0 1 1 1 1 1 1 0 1 0 0 1 1 0 1 1 1 0 1 1 1
- 0 1 0 1 1 1 1 0 1 1 0 1 1 1 1 1 1 0 0 0 1 1 0 0 1 1 1 0 0 1 1 0 0 1 0 0 1
- 1 0 0 1 0 0 1 1 0 1 1 0 1 1 1 1 1 1 0 0 1 0 1 1 1 1 1 1 1 0 1 1 0 1 1 1 1
- 0 0 0 1 1 1 1 1 0 1 1 0 1]</t>
+          <t>[0 1 1 0 1 0 0 1 1 0 1 1 0 1 0 0 0 1 1 0 1 0 0 0 1 0 1 1 0 1 0 1 1 0 1 0 1
+ 0 0 1 1 1 0 1 1 0 1 0 1 0 1 1 0 0 1 0 1 0 0 1 1 0 0 0 1 1 0 0 1 0 0 0 0 0
+ 0 0 0 1 1 0 1 0 0 1 0 1 0 1 1 0 1 1 1 0 1 1 0 1 0 1 1 0 1 1 1 0 0 0 0 0 1
+ 0 1 1 1 0 1 1 0 1 0 1 0 0 1 0 0 0 0 1 1 1 0 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0
+ 1 1 0 0 1 1 0 1 0 0 0 0 1 1 1 1 1 0 0 1 1 1 1 1 0 1 0 0 0 1 1 0 0 1 1 1 1
+ 1 1 0 0 1 0 0 0 1 1 0 1 0 0 1 0 0 0 1 1 1 0 0 1 0 0 1 1 1 0 1 0 1 0 0 0 0
+ 0 1 0 0 1 1 0 0 1 0 0 1 1 1 0 1 0 1 0 1 1 0 0 1 0 0 0 0 0 1 1 0 0 1 1 1 1
+ 0 1 1 1 0 1 0 1 0 0 1 0 0 0 1 0 0 1 1 1 1 0 1 1 1 1 1 1 0 0 1 1 1 1 1 1 1
+ 0 1 0 0 1 0 0 1 1 0 0 1 1 1 0 1 1 1 1 1 0 0 0 1 0 1 0 1 1 1 0 1 1 0 1 1 0
+ 1 0 1 0 0 0 0 1 0 1 0 1 1 1 0 0 1 0 0 0 1 0 1 0 0 1 0 0 0 1 1 1 0 1 1 1 0
+ 1 0 0 0 0 1 1 0 1 0 1 1 1 0 1 0 0 0 0 1 0 1 1 0 0 1 0 1 0 1 0 0 1 0 0 1 0
+ 1 0 1 0 0 0 0 1 1 0 0 1 0 1 1 0 1 1 0 0 1 0 1 0 1 0 1 1 1 0 1 0 0 1 0 0 1
+ 1 1 1 1 1 0 1 0 0 1 1 0 1 0 1 1 0 1 0 0 1 0 0 0 0 1 1 0 1 1 0 0 0 1 0 0 1
+ 0 0 0 1 0 0 0 0 0 0 1 0 0 1 1 0 0 1 0 0 0 1 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0
+ 0 1 0 1 1 1 0 1 1 0 0 1 0 1 0 0 1 0 1 0 1 0 1 0 0 0 1 1 0 0 1 1 0 0 0 0 1
+ 1 0 0 0 1 0 0 0 0 1 0 0 0 0 1 1 1 1 0 1 0 1 1 1 0 1 1 0 0 1 1 1 1 1 0 1 0
+ 1 1 0 0 0 1 0 0 1 1 1 0 1 0 1 0 0 1 1 1 0 1 0 0 1 0 1 1 1 0 0 0 0 1 1 0 0
+ 1 0 1 0 0 1 1 0 1 1 1 0 1 0 1 1 1 0 0 0 0 1 1 0 0 1 0 0 1 1 1 1 1 0 1 1 0
+ 0 0 0 0 1 1 1 0 1 0 1 1 1 0 1 0 1 1 0 0 0 0 1 1 1 0 1 0 1 0 0 0 1 1 1 1 0
+ 1 0 0 1 1 1 1 1 1 1 0 1 0 1 1 0 0 1 1 1 1 1 0 1 0 1 1 1 0 1 1 1 1 1 0 1 1
+ 0 1 1 1 0 0 1 0 0 1 0 1 0]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[  0   1   7   8  10  11  12  16  17  20  21  22  24  27  28  29  30  31
-  34  36  37  42  43  44  47  49  50  51  52  53  55  57  59  60  61  62
-  63  64  66  68  69  72  73  74  75  76  77  82  86  87  88  89  91  93
-  94  96  97  98 100 101 107 108 111 114 115 116 117 118 119 120 122 123
- 124 126 127 128 129 131 132 133 136 138 139 140 142 145 146 147 148 152
- 156 158 159 161 162 163 164 165 166 167 169 170 171 172 174 175 178 180
- 181 184 185 186 189 190 193 195 196 198 201 205 207 208 209 210 212 214
- 215 217 218 219 220 224 226 227 231 236 237 238 240 241 242 244 247 248
- 250 251 253 254 255 256 257 260 261 263 266 267 269 270 271 273 278 279
- 282 283 285 286 287 288 290 291 292 293 294 295 297 298 302 304 306 307
- 308 309 310 311 316 318 320 322 326 327 329 330 331 332 333 334 335 336
- 337 338 339 343 345 347 348 350 351 352 353 354 355 357 358 360 361 362
- 364 365 367 369 371 372 373 374 376 378 379 380 381 382 385 386 387 388
- 389 391 392 393 394 396 397 398 402 406 407 409 410 412 416 417 418 419
- 420 421 422 423 425 428 429 431 433 439 441 442 444 446 447 450 451 453
- 455 457 458 459 461 462 465 469 470 471 472 473 474 476 477 478 479 480
- 481 482 485 488 491 492 495 498 499 500 503 504 506 507 508 509 510 511
- 513 515 518 519 520 522 523 525 527 529 530 531 532 534 535 537 539 540
- 541 542 543 544 545 549 551 552 554 555 556 559 560 562 564 567 570 571
- 572 573 577 578 579 582 584 585 587 589 590 592 593 595 596 598 599 601
- 604 605 606 607 608 610 611 612 613 615 617 619 622 624 625 626 627 629
- 630 632 633 634 635 637 638 639 640 641 642 643 644 646 647 648 649 650
- 651 653 656 657 659 660 661 663 664 665 667 669 670 671 672 674 675 677
- 678 679 680 681 682 686 687 690 691 692 695 696 699 702 703 706 709 710
- 712 713 715 716 717 718 719 720 723 725 726 727 728 729 730 731 733 734
- 736 737 738 739 743 744 745 746 747 749 750 752]</t>
+          <t>[  1   2   4   7   8  10  11  13  17  18  20  24  26  27  29  31  32  34
+  36  39  40  41  43  44  46  48  50  51  54  56  59  60  64  65  68  77
+  78  80  83  85  87  88  90  91  92  94  95  97  99 100 102 103 104 110
+ 112 113 114 116 117 119 121 124 129 130 131 134 140 145 148 149 152 153
+ 155 160 161 162 163 164 167 168 169 170 171 173 177 178 181 182 183 184
+ 185 186 189 193 194 196 199 203 204 205 208 211 212 213 215 217 223 226
+ 227 230 233 234 235 237 239 241 242 245 251 252 255 256 257 258 260 261
+ 262 264 266 269 273 276 277 278 279 281 282 283 284 285 286 289 290 291
+ 292 293 294 295 297 300 303 304 307 308 309 311 312 313 314 315 319 321
+ 323 324 325 327 328 330 331 333 335 340 342 344 345 346 349 353 355 358
+ 362 363 364 366 367 368 370 375 376 378 380 381 382 384 389 391 392 395
+ 397 399 402 405 407 409 414 415 418 420 421 423 424 427 429 431 433 434
+ 435 437 440 443 444 445 446 447 448 450 453 454 456 458 459 461 464 469
+ 470 472 473 477 480 484 491 494 495 498 502 507 511 513 519 521 522 523
+ 525 526 529 531 534 536 538 540 544 545 548 549 554 555 559 564 569 570
+ 571 572 574 576 577 578 580 581 584 585 586 587 588 590 592 593 597 600
+ 601 602 604 606 609 610 611 613 616 618 619 620 625 626 629 631 634 635
+ 637 638 639 641 643 644 645 650 651 654 657 658 659 660 661 663 664 670
+ 671 672 674 676 677 678 680 682 683 688 689 690 692 694 698 699 700 701
+ 703 706 707 708 709 710 711 712 714 716 717 720 721 722 723 724 726 728
+ 729 730 732 733 734 735 736 738 739 741 742 743 746 749 751]</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.9736842105263158</v>
+        <v>0.9868421052631579</v>
       </c>
       <c r="E10" t="n">
-        <v>19.94853949546814</v>
+        <v>18.72363972663879</v>
       </c>
     </row>
     <row r="11">
@@ -1023,60 +1021,61 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[1 0 1 0 1 0 1 1 0 0 1 1 1 0 1 0 1 0 1 0 1 0 1 1 1 0 1 1 1 1 0 0 1 0 1 1 1
- 0 1 0 1 0 0 1 1 1 1 0 0 1 1 0 1 0 0 0 1 0 0 1 0 0 1 0 0 1 1 0 1 1 0 1 1 1
- 0 0 1 0 0 1 0 0 0 0 0 0 1 0 1 1 1 0 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1
- 1 1 0 1 0 1 0 1 1 1 1 0 1 0 1 0 0 0 0 0 1 0 1 0 1 0 0 1 1 0 0 1 0 1 1 0 1
- 1 1 0 1 1 0 0 0 1 0 1 1 1 1 1 0 1 1 1 1 0 1 1 0 0 0 1 0 0 0 0 1 1 1 1 1 0
- 0 1 0 1 0 0 0 0 1 0 1 0 0 1 0 1 0 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 1 1 1 1 1
- 0 0 1 0 0 1 0 1 1 0 0 1 1 1 0 1 1 0 1 0 1 1 1 0 1 0 1 0 1 1 1 0 0 0 0 1 0
- 1 1 0 0 0 1 1 0 0 0 1 0 0 0 0 1 1 1 1 1 0 1 1 0 1 1 0 1 1 0 0 1 0 1 0 1 1
- 1 0 0 1 1 1 1 1 0 1 0 1 1 1 1 0 0 1 1 1 1 1 0 0 0 1 0 0 0 1 1 1 1 0 0 0 1
- 1 0 1 1 1 0 1 0 0 1 1 0 0 0 1 0 1 0 0 0 1 1 0 0 1 0 1 0 0 0 0 1 1 0 1 1 1
- 1 0 1 0 0 1 0 0 1 0 1 1 1 0 1 1 1 1 0 1 1 0 1 0 0 0 1 0 1 0 0 1 1 0 1 0 1
- 0 1 1 1 0 1 1 1 1 1 0 0 1 1 1 1 0 0 1 0 1 1 0 1 0 1 1 0 1 1 1 0 0 0 0 1 1
- 0 0 1 1 1 0 0 1 1 1 0 1 1 1 0 0 0 0 0 0 0 1 1 0 0 0 1 0 0 0 0 1 1 0 1 1 1
- 0 1 1 0 0 0 0 1 1 1 0 1 1 0 1 1 0 0 0 1 1 0 0 0 1 1 1 0 1 0 0 1 0 0 1 1 1
- 0 1 0 0 1 0 0 0 0 0 1 0 1 0 1 1 1 0 0 1 1 1 0 1 1 1 1 0 1 1 1 0 1 1 0 1 1
- 1 0 0 1 1 0 1 0 1 1 0 0 1 1 0 1 0 1 1 0 0 1 1 0 1 1 1 0 0 0 0 0 0 0 1 0 0
- 1 1 0 1 0 0 1 1 0 1 1 1 0 0 0 1 1 0 0 0 0 0 1 1 0 1 1 1 0 0 0 1 0 0 1 1 1
- 1 0 0 0 0 1 1 1 0 0 0 0 1 1 0 0 1 0 1 1 1 1 0 1 1 1 0 0 0 0 1 1 1 0 0 1 1
- 0 0 0 1 0 1 1 0 1 0 1 1 0 1 0 1 1 0 1 1 1 0 1 1 0 1 1 1 0 0 1 0 1 1 1 0 1
- 0 0 0 0 0 0 0 1 0 1 1 0 0 1 1 0 0 1 0 1 0 1 1 1 0 0 0 1 0 1 1 1 0 1 1 1 1
- 1 0 0 0 0 1 1 1 1 1 0 0 1]</t>
+          <t>[0 1 0 0 1 1 0 1 1 0 1 0 1 0 1 1 0 1 1 0 1 0 0 0 1 1 1 0 1 1 0 1 1 1 1 0 0
+ 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 1 1 1 0 1 1 0 1 0 1 1 1 0 1 1 1
+ 0 0 0 1 1 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 1 1 1 0 1 0 0 1 0 1 0 1 0 0 0 0 1
+ 0 0 0 1 1 0 1 1 1 0 1 0 0 0 0 1 0 0 1 0 1 0 1 1 1 1 0 1 1 1 0 1 1 1 1 1 1
+ 1 0 1 0 0 1 1 0 1 1 0 1 1 0 1 1 1 0 1 1 1 0 1 1 0 0 1 1 1 0 1 1 0 1 1 1 0
+ 1 0 1 0 1 0 1 1 0 0 1 0 1 0 1 1 1 1 1 1 0 1 1 1 1 0 1 0 1 0 0 0 1 1 1 0 1
+ 0 0 1 0 0 0 0 1 1 1 0 1 0 0 0 1 0 0 0 1 1 1 1 1 1 1 1 0 0 0 0 1 1 0 0 1 1
+ 1 0 0 1 0 1 1 0 0 1 1 0 1 0 0 0 1 1 1 1 0 0 1 0 0 0 0 1 0 0 0 1 0 1 0 0 1
+ 0 0 1 1 1 1 0 1 1 1 1 1 0 1 1 0 1 0 0 0 1 1 1 0 0 0 0 1 1 0 1 1 1 1 0 0 1
+ 1 1 1 0 1 1 1 0 0 1 0 1 0 1 1 1 0 0 1 1 1 1 0 1 1 1 0 1 0 0 0 1 0 0 1 1 0
+ 0 1 0 1 1 0 0 1 1 0 0 1 0 0 0 1 0 0 1 1 1 0 0 1 1 1 0 0 0 0 1 0 1 1 1 1 1
+ 1 0 1 1 0 1 0 1 1 1 0 1 0 1 1 0 1 1 0 1 1 1 1 1 1 0 1 0 1 0 0 0 0 1 1 1 1
+ 1 0 1 0 1 0 0 1 0 1 0 0 1 1 1 0 1 0 0 0 1 0 0 1 1 0 1 1 1 1 0 1 1 1 0 0 0
+ 1 1 0 1 0 0 1 0 1 1 1 1 0 0 0 1 0 1 1 1 1 0 1 0 0 1 1 0 0 1 0 1 1 1 1 1 0
+ 1 1 0 1 1 0 1 0 1 0 0 0 0 0 1 0 0 1 1 0 1 0 0 1 0 0 1 1 0 1 1 0 0 0 0 0 1
+ 0 0 1 0 1 1 0 0 0 1 1 1 0 1 0 0 0 1 0 0 0 1 1 0 1 1 1 1 1 1 0 0 0 1 0 0 1
+ 1 0 1 1 0 0 1 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 1 1 0 0 1 1 1 0 0
+ 1 1 0 1 0 0 0 0 0 1 1 0 1 0 1 0 1 0 1 1 0 0 0 1 0 0 1 1 1 1 0 0 1 1 1 0 1
+ 0 0 1 1 0 1 0 1 0 1 1 1 1 1 0 0 1 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 1 0 1 0 0
+ 1 1 0 0 1 0 1 1 1 0 0 1 1 1 1 1 0 1 1 1 1 1 1 0 1 0 1 0 0 0 1 0 1 0 1 1 1
+ 0 1 0 0 1 0 0 1 1 1 1 1 0]</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[  0   2   4   6   7  10  11  12  14  16  18  20  22  23  24  26  27  28
-  29  32  34  35  36  38  40  43  44  45  46  49  50  52  56  59  62  65
-  66  68  69  71  72  73  76  79  86  88  89  90  92  93 102 109 110 111
- 112 114 116 118 119 120 121 123 125 131 133 135 138 139 142 144 145 147
- 148 149 151 152 156 158 159 160 161 162 164 165 166 167 169 170 174 179
- 180 181 182 183 186 188 193 195 198 200 202 204 209 217 218 219 220 221
- 224 227 229 230 233 234 235 237 238 240 242 243 244 246 248 250 251 252
- 257 259 260 264 265 269 274 275 276 277 278 280 281 283 284 286 287 290
- 292 294 295 296 299 300 301 302 303 305 307 308 309 310 313 314 315 316
- 317 321 325 326 327 328 332 333 335 336 337 339 342 343 347 349 353 354
- 357 359 364 365 367 368 369 370 372 375 378 380 381 382 384 385 386 387
- 389 390 392 396 398 401 402 404 406 408 409 410 412 413 414 415 416 419
- 420 421 422 425 427 428 430 432 433 435 436 437 442 443 446 447 448 451
- 452 453 455 456 457 465 466 470 475 476 478 479 480 482 483 488 489 490
- 492 493 495 496 500 501 505 506 507 509 512 515 516 517 519 522 528 530
- 532 533 534 537 538 539 541 542 543 544 546 547 548 550 551 553 554 555
- 558 559 561 563 564 567 568 570 572 573 576 577 579 580 581 589 592 593
- 595 598 599 601 602 603 607 608 614 615 617 618 619 623 626 627 628 629
- 634 635 636 641 642 645 647 648 649 650 652 653 654 659 660 661 664 665
- 669 671 672 674 676 677 679 681 682 684 685 686 688 689 691 692 693 696
- 698 699 700 702 710 712 713 716 717 720 722 724 725 726 730 732 733 734
- 736 737 738 739 740 745 746 747 748 749 752]</t>
+          <t>[  1   4   5   7   8  10  12  14  15  17  18  20  24  25  26  28  29  31
+  32  33  34  40  41  42  52  53  56  58  59  60  62  63  65  67  68  69
+  71  72  73  77  78  80  85  89  94  95  96  98 101 103 105 110 114 115
+ 117 118 119 121 126 129 131 133 134 135 136 138 139 140 142 143 144 145
+ 146 147 148 150 153 154 156 157 159 160 162 163 164 166 167 168 170 171
+ 174 175 176 178 179 181 182 183 185 187 189 191 192 195 197 199 200 201
+ 202 203 204 206 207 208 209 211 213 217 218 219 221 224 229 230 231 233
+ 237 241 242 243 244 245 246 247 248 253 254 257 258 259 262 264 265 268
+ 269 271 275 276 277 278 281 286 290 292 295 298 299 300 301 303 304 305
+ 306 307 309 310 312 316 317 318 323 324 326 327 328 329 332 333 334 335
+ 337 338 339 342 344 346 347 348 351 352 353 354 356 357 358 360 364 367
+ 368 371 373 374 377 378 381 385 388 389 390 393 394 395 400 402 403 404
+ 405 406 407 409 410 412 414 415 416 418 420 421 423 424 426 427 428 429
+ 430 431 433 435 440 441 442 443 444 446 448 451 453 456 457 458 460 464
+ 467 468 470 471 472 473 475 476 477 481 482 484 487 489 490 491 492 496
+ 498 499 500 501 503 506 507 510 512 513 514 515 516 518 519 521 522 524
+ 526 532 535 536 538 541 544 545 547 548 554 557 559 560 564 565 566 568
+ 572 576 577 579 580 581 582 583 584 588 591 592 594 595 598 599 603 604
+ 616 618 619 620 621 624 625 626 629 630 632 638 639 641 643 645 647 648
+ 652 655 656 657 658 661 662 663 665 668 669 671 673 675 676 677 678 679
+ 682 685 687 690 698 700 703 704 707 709 710 711 714 715 716 717 718 720
+ 721 722 723 724 725 727 729 733 735 737 738 739 741 744 747 748 749 750
+ 751]</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.9868421052631579</v>
+        <v>0.9605263157894737</v>
       </c>
       <c r="E11" t="n">
-        <v>20.06635046005249</v>
+        <v>19.76698589324951</v>
       </c>
     </row>
   </sheetData>
